--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail0 Features.xlsx
@@ -6236,7 +6236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6247,29 +6247,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6290,115 +6288,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6415,72 +6403,66 @@
         <v>3.158413997435195e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.665732959885023</v>
+        <v>1.66768720206126e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.788897112233619</v>
+        <v>3.646032934539818e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.66768720206126e-06</v>
+        <v>-0.08807893875873821</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.646032934539818e-06</v>
+        <v>0.1858521686486291</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08807893875873821</v>
+        <v>0.04218194506958851</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1858521686486291</v>
+        <v>1.806232371457303</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04218194506958851</v>
+        <v>1.89268290184464</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.761301625766376</v>
+        <v>4.292872113007087</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.89268290184464</v>
+        <v>1.081496641591207e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.292872113007087</v>
+        <v>184255624.5077228</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.081496641591207e-15</v>
+        <v>6.351491796516351e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>184255624.5077228</v>
+        <v>36.71695716006107</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.351491796516351e-07</v>
+        <v>0.0001326220713104437</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>36.71695716006107</v>
+        <v>7.901852255597173</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001326220713104437</v>
+        <v>1.294199316985278</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.901852255597173</v>
+        <v>0.008280825195078844</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.294199316985278</v>
+        <v>2.967103391685558</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008280825195078844</v>
+        <v>0.9539453336818992</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.967103391685558</v>
+        <v>1.643076440558078</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9539453336818992</v>
+        <v>45</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.643076440558078</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2254147584574316</v>
       </c>
     </row>
@@ -6495,72 +6477,66 @@
         <v>2.766251846777393e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.354991754257319</v>
+        <v>1.3116683191175e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.219270224272416</v>
+        <v>3.621394882601162e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.3116683191175e-06</v>
+        <v>-0.07908912072302945</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.621394882601162e-06</v>
+        <v>0.1423941965699455</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07908912072302945</v>
+        <v>0.02645687337869988</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1423941965699455</v>
+        <v>1.807059398783033</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02645687337869988</v>
+        <v>1.946210825407983</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.757818967645894</v>
+        <v>4.089579793786962</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.946210825407983</v>
+        <v>1.191691122475621e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.089579793786962</v>
+        <v>166135416.0506377</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.191691122475621e-15</v>
+        <v>7.045667868612413e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>166135416.0506377</v>
+        <v>32.89183862657028</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.045667868612413e-07</v>
+        <v>0.00014319684665657</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>32.89183862657028</v>
+        <v>8.007604523588419</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.00014319684665657</v>
+        <v>1.380235115320742</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.007604523588419</v>
+        <v>0.009182029567690278</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.380235115320742</v>
+        <v>2.941830714242681</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009182029567690278</v>
+        <v>0.9546348855891451</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.941830714242681</v>
+        <v>1.684850688956647</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9546348855891451</v>
+        <v>38</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.684850688956647</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2187515768677</v>
       </c>
     </row>
@@ -6575,72 +6551,66 @@
         <v>2.513332919860905e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.194496360871449</v>
+        <v>1.072380326024039e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.4675458804869468</v>
+        <v>3.601664722700788e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.072380326024039e-06</v>
+        <v>-0.07115829791001303</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.601664722700788e-06</v>
+        <v>0.1033136260236222</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.07115829791001303</v>
+        <v>0.01569580210509049</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1033136260236222</v>
+        <v>1.800688281350591</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01569580210509049</v>
+        <v>1.892613257319437</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.747550940975969</v>
+        <v>4.047452561546785</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.892613257319437</v>
+        <v>1.216627257409318e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.047452561546785</v>
+        <v>159008958.370109</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.216627257409318e-15</v>
+        <v>7.359599327242501e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>159008958.370109</v>
+        <v>30.76101967332979</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.359599327242501e-07</v>
+        <v>0.0001520464380575428</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>30.76101967332979</v>
+        <v>9.191950824997315</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001520464380575428</v>
+        <v>1.355980143563847</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.191950824997315</v>
+        <v>0.01284670155781261</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.355980143563847</v>
+        <v>2.799496486808438</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01284670155781261</v>
+        <v>0.9533240499664045</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.799496486808438</v>
+        <v>1.66383412197857</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9533240499664045</v>
+        <v>38</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.66383412197857</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2248773557598892</v>
       </c>
     </row>
@@ -6655,72 +6625,66 @@
         <v>2.344519396139196e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.14301717482017</v>
+        <v>9.197182473414691e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.2514741983559463</v>
+        <v>3.585170502845683e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.197182473414691e-07</v>
+        <v>-0.06540998284781729</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.585170502845683e-06</v>
+        <v>0.0749171882745142</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.06540998284781729</v>
+        <v>0.009872800536803649</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.0749171882745142</v>
+        <v>1.798527743403125</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.009872800536803649</v>
+        <v>1.940161572527377</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.744139369520247</v>
+        <v>4.066618256220188</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.940161572527377</v>
+        <v>1.205186518116068e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.066618256220188</v>
+        <v>159693383.5363403</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.205186518116068e-15</v>
+        <v>7.313281284949376e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>159693383.5363403</v>
+        <v>30.73463855872658</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.313281284949376e-07</v>
+        <v>0.0001470225769655172</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>30.73463855872658</v>
+        <v>9.205069224970671</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001470225769655172</v>
+        <v>1.370793664737731</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.205069224970671</v>
+        <v>0.01245770803794535</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.370793664737731</v>
+        <v>2.781397358556187</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01245770803794535</v>
+        <v>0.9528348663491852</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.781397358556187</v>
+        <v>1.649811713462615</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9528348663491852</v>
+        <v>37</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.649811713462615</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2263451192803608</v>
       </c>
     </row>
@@ -6735,72 +6699,66 @@
         <v>2.220374470328508e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.147294973597193</v>
+        <v>8.374817936835538e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.2939484656283646</v>
+        <v>3.570615885013012e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.374817936835538e-07</v>
+        <v>-0.06287604935664774</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.570615885013012e-06</v>
+        <v>0.06398163301824661</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.06287604935664774</v>
+        <v>0.008042432128488005</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.06398163301824661</v>
+        <v>1.798546599524001</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.008042432128488005</v>
+        <v>1.944326572436785</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.74722513015405</v>
+        <v>4.047344304737124</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.944326572436785</v>
+        <v>1.216692342036153e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.047344304737124</v>
+        <v>158088786.2774488</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.216692342036153e-15</v>
+        <v>7.394676706566187e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>158088786.2774488</v>
+        <v>30.40765330227652</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.394676706566187e-07</v>
+        <v>0.0001374858911134965</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>30.40765330227652</v>
+        <v>8.432930624427716</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001374858911134965</v>
+        <v>1.381857377012369</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.432930624427716</v>
+        <v>0.009777215507152123</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.381857377012369</v>
+        <v>2.878912264768608</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009777215507152123</v>
+        <v>0.9545235234896718</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.878912264768608</v>
+        <v>1.678932072419174</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9545235234896718</v>
+        <v>29</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.678932072419174</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2251456858133373</v>
       </c>
     </row>
@@ -6815,72 +6773,66 @@
         <v>2.112617475938138e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.166248596242341</v>
+        <v>8.035224050141597e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.4182958101579315</v>
+        <v>3.556984771260434e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.035224050141597e-07</v>
+        <v>-0.06339323724424348</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.556984771260434e-06</v>
+        <v>0.06469385100130143</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.06339323724424348</v>
+        <v>0.008203336650776921</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.06469385100130143</v>
+        <v>1.793903236091462</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.008203336650776921</v>
+        <v>1.989270423228584</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.746288243129014</v>
+        <v>3.992206970168861</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.989270423228584</v>
+        <v>1.250532490102088e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.992206970168861</v>
+        <v>153761682.1715672</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.250532490102088e-15</v>
+        <v>7.607164677630035e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>153761682.1715672</v>
+        <v>29.56590811001115</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>7.607164677630035e-07</v>
+        <v>0.00013700441300609</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>29.56590811001115</v>
+        <v>8.218683821928286</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.00013700441300609</v>
+        <v>1.398488865049202</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.218683821928286</v>
+        <v>0.00925420472006098</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.398488865049202</v>
+        <v>2.894598977896307</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.00925420472006098</v>
+        <v>0.9557929518225006</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.894598977896307</v>
+        <v>1.676127219685491</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9557929518225006</v>
+        <v>29</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.676127219685491</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2252235156588474</v>
       </c>
     </row>
@@ -6895,72 +6847,66 @@
         <v>2.005611597335514e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.175886789177702</v>
+        <v>7.887645678924359e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.5313713757158944</v>
+        <v>3.543725435620018e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.887645678924359e-07</v>
+        <v>-0.06554509580518315</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.543725435620018e-06</v>
+        <v>0.06811451886287058</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.06554509580518315</v>
+        <v>0.008935775553519053</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.06811451886287058</v>
+        <v>1.792617226154022</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.008935775553519053</v>
+        <v>1.82194005017971</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.748284294924113</v>
+        <v>3.910956675575268</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.82194005017971</v>
+        <v>1.303031956421144e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.910956675575268</v>
+        <v>147603985.3090422</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.303031956421144e-15</v>
+        <v>7.92831677841109e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>147603985.3090422</v>
+        <v>28.38907446480044</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>7.92831677841109e-07</v>
+        <v>0.0001439107341166104</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>28.38907446480044</v>
+        <v>8.543769658458382</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001439107341166104</v>
+        <v>1.394978056076851</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.543769658458382</v>
+        <v>0.0105049079442365</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.394978056076851</v>
+        <v>2.856872069928302</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0105049079442365</v>
+        <v>0.9562165126664173</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.856872069928302</v>
+        <v>1.661954726292559</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9562165126664173</v>
+        <v>22</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.661954726292559</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2249267968130603</v>
       </c>
     </row>
@@ -6975,72 +6921,66 @@
         <v>1.893687616520244e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.161467415769156</v>
+        <v>7.725160867864222e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.5682788094817837</v>
+        <v>3.530703911149053e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.725160867864222e-07</v>
+        <v>-0.06799043377574784</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.530703911149053e-06</v>
+        <v>0.07228961018444326</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.06799043377574784</v>
+        <v>0.009848095225461224</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.07228961018444326</v>
+        <v>1.795777639855761</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.009848095225461224</v>
+        <v>1.767089736403969</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.751260232829136</v>
+        <v>3.946273137354996</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.767089736403969</v>
+        <v>1.279813816346085e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.946273137354996</v>
+        <v>152136563.3429936</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.279813816346085e-15</v>
+        <v>7.710068168024634e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>152136563.3429936</v>
+        <v>29.62197407937098</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.710068168024634e-07</v>
+        <v>0.0001625244763740605</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>29.62197407937098</v>
+        <v>9.608462542707239</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001625244763740605</v>
+        <v>1.342049662206922</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.608462542707239</v>
+        <v>0.01500467449195142</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.342049662206922</v>
+        <v>2.706702367377127</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01500467449195142</v>
+        <v>0.9567678859488056</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.706702367377127</v>
+        <v>1.677638635719078</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9567678859488056</v>
+        <v>22</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.677638635719078</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2276676386299549</v>
       </c>
     </row>
@@ -7055,72 +6995,66 @@
         <v>1.778304705136808e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.116137476176617</v>
+        <v>7.442418330728415e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.485782412914797</v>
+        <v>3.518041739309922e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.442418330728415e-07</v>
+        <v>-0.06975648487256041</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.518041739309922e-06</v>
+        <v>0.07637918263803405</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06975648487256041</v>
+        <v>0.01069756962792635</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.07637918263803405</v>
+        <v>1.802321749507916</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01069756962792635</v>
+        <v>1.70863363528836</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.756989594647197</v>
+        <v>4.12433184379573</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.70863363528836</v>
+        <v>1.162022350634403e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.12433184379573</v>
+        <v>171747172.986041</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.162022350634403e-15</v>
+        <v>6.870537538333773e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>171747172.986041</v>
+        <v>34.2762795188525</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.870537538333773e-07</v>
+        <v>0.0001739941855094586</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>34.2762795188525</v>
+        <v>10.19127696247494</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001739941855094586</v>
+        <v>1.266359076518627</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.19127696247494</v>
+        <v>0.01807140604055184</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.266359076518627</v>
+        <v>2.611962193108523</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01807140604055184</v>
+        <v>0.9554590906844598</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.611962193108523</v>
+        <v>1.661922214751084</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9554590906844598</v>
+        <v>22</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.661922214751084</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2290264070713191</v>
       </c>
     </row>
@@ -7135,72 +7069,66 @@
         <v>1.665399988821836e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.045867016626863</v>
+        <v>7.003470744380378e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.2914610392106294</v>
+        <v>3.505993991185515e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.003470744380378e-07</v>
+        <v>-0.06993197173520853</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.505993991185515e-06</v>
+        <v>0.07840817392779867</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06993197173520853</v>
+        <v>0.01103312260836144</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.07840817392779867</v>
+        <v>1.842523027961821</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01103312260836144</v>
+        <v>1.999889814071798</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.814585609467603</v>
+        <v>3.815296429054652</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.999889814071798</v>
+        <v>1.171708235728568e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.815296429054652</v>
+        <v>170509383.7080176</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.171708235728568e-15</v>
+        <v>6.954136866273387e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>170509383.7080176</v>
+        <v>34.06560072693836</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.954136866273387e-07</v>
+        <v>0.000152754447151089</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>34.06560072693836</v>
+        <v>9.330208030577838</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000152754447151089</v>
+        <v>1.236673959576966</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.330208030577838</v>
+        <v>0.01329769957116079</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.236673959576966</v>
+        <v>2.812633905125333</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01329769957116079</v>
+        <v>0.9554929188912602</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.812633905125333</v>
+        <v>1.567205184336412</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9554929188912602</v>
+        <v>21</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.567205184336412</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2456292045404044</v>
       </c>
     </row>
@@ -7215,72 +7143,66 @@
         <v>1.561185268906757e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.9686933799248568</v>
+        <v>6.480912390211355e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.04791370199132894</v>
+        <v>3.494823694622884e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.480912390211355e-07</v>
+        <v>-0.06836047401455377</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.494823694622884e-06</v>
+        <v>0.07777646907818059</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06836047401455377</v>
+        <v>0.0107151293321456</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.07777646907818059</v>
+        <v>1.857662697829907</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0107151293321456</v>
+        <v>1.684576953344833</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.832779187457833</v>
+        <v>4.638977209504889</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.684576953344833</v>
+        <v>1.015817159559029e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.638977209504889</v>
+        <v>187952405.7299168</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.015817159559029e-15</v>
+        <v>6.349106378097673e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>187952405.7299168</v>
+        <v>35.88486548782917</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.349106378097673e-07</v>
+        <v>0.0001367226612504057</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>35.88486548782917</v>
+        <v>8.676715040445877</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001367226612504057</v>
+        <v>1.290421231010296</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.676715040445877</v>
+        <v>0.01029321803912302</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.290421231010296</v>
+        <v>2.875532686454877</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01029321803912302</v>
+        <v>0.9538500439570319</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.875532686454877</v>
+        <v>1.569227497576702</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9538500439570319</v>
+        <v>21</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.569227497576702</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.298669966037778</v>
       </c>
     </row>
@@ -7295,72 +7217,66 @@
         <v>1.467891190055292e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.9016876177843817</v>
+        <v>5.95741566235104e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.1842082722312526</v>
+        <v>3.484688095477044e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.95741566235104e-07</v>
+        <v>-0.06531514351716043</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.484688095477044e-06</v>
+        <v>0.0766212808854204</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06531514351716043</v>
+        <v>0.01012883836438719</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.0766212808854204</v>
+        <v>1.877590346514954</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01012883836438719</v>
+        <v>1.761687521238891</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.855189396233233</v>
+        <v>4.645927696049283</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.761687521238891</v>
+        <v>9.727607149184276e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.645927696049283</v>
+        <v>198419560.1998328</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>9.727607149184276e-16</v>
+        <v>6.037738106115416e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>198419560.1998328</v>
+        <v>38.29790244872773</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.037738106115416e-07</v>
+        <v>0.0001324768882243726</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>38.29790244872773</v>
+        <v>7.973083066975327</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001324768882243726</v>
+        <v>1.280977845149889</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.973083066975327</v>
+        <v>0.008421562884242489</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.280977845149889</v>
+        <v>3.023112301489542</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.008421562884242489</v>
+        <v>0.9542410729157743</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.023112301489542</v>
+        <v>1.546157131881846</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9542410729157743</v>
+        <v>21</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.546157131881846</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3032665753357409</v>
       </c>
     </row>
@@ -7375,72 +7291,66 @@
         <v>1.384384325376293e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.8548593739435084</v>
+        <v>5.47408252558533e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.3705137167831509</v>
+        <v>3.475676993852306e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.47408252558533e-07</v>
+        <v>-0.06082826980542347</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.475676993852306e-06</v>
+        <v>0.07795588398016105</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06082826980542347</v>
+        <v>0.009768088366617637</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.07795588398016105</v>
+        <v>1.885574682709086</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.009768088366617637</v>
+        <v>1.814178297592968</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.864845770318996</v>
+        <v>4.58997250481305</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.814178297592968</v>
+        <v>1.367821651923788e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.58997250481305</v>
+        <v>139138902.7928643</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.367821651923788e-15</v>
+        <v>8.607801206802575e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>139138902.7928643</v>
+        <v>26.48052692838183</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.607801206802575e-07</v>
+        <v>0.0001547031641881778</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>26.48052692838183</v>
+        <v>9.039784813977942</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001547031641881778</v>
+        <v>1.277106743081293</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.039784813977942</v>
+        <v>0.01264198822723442</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.277106743081293</v>
+        <v>2.921608550514338</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01264198822723442</v>
+        <v>0.9549416085194303</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.921608550514338</v>
+        <v>1.513904328068825</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9549416085194303</v>
+        <v>10</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.513904328068825</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2878242039124125</v>
       </c>
     </row>
@@ -7455,72 +7365,66 @@
         <v>1.30851213314693e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.8307410110353962</v>
+        <v>5.040953091465496e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.4940069407334584</v>
+        <v>3.467876007976444e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.040953091465496e-07</v>
+        <v>-0.05482715387449753</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.467876007976444e-06</v>
+        <v>0.08412825859196182</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05482715387449753</v>
+        <v>0.01007327716791871</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.08412825859196182</v>
+        <v>1.841579364268074</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01007327716791871</v>
+        <v>1.905862552867353</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.803920972569843</v>
+        <v>4.270692901537139</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.905862552867353</v>
+        <v>1.592871555535832e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.270692901537139</v>
+        <v>120344653.9478286</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.592871555535832e-15</v>
+        <v>9.778719173017916e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>120344653.9478286</v>
+        <v>23.06929708390397</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>9.778719173017916e-07</v>
+        <v>0.0001958064905239235</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>23.06929708390397</v>
+        <v>11.82334086184804</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001958064905239235</v>
+        <v>1.079892642218828</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.82334086184804</v>
+        <v>0.02737206131207572</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.079892642218828</v>
+        <v>2.486015970932427</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02737206131207572</v>
+        <v>0.9539125208873093</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.486015970932427</v>
+        <v>1.580249532313742</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9539125208873093</v>
+        <v>11</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.580249532313742</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2856861032288591</v>
       </c>
     </row>
@@ -7535,72 +7439,66 @@
         <v>1.239277853979041e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.8242096598060807</v>
+        <v>4.659378954263392e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.5500682652844908</v>
+        <v>3.461300572511042e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.659378954263392e-07</v>
+        <v>-0.04845710056141094</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.461300572511042e-06</v>
+        <v>0.09177086506999625</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04845710056141094</v>
+        <v>0.01076139978102185</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.09177086506999625</v>
+        <v>1.801337845644412</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01076139978102185</v>
+        <v>1.797001470501025</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.745064965356795</v>
+        <v>4.349453237259587</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.797001470501025</v>
+        <v>2.021313557857668e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.349453237259587</v>
+        <v>94309587.79631107</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.021313557857668e-15</v>
+        <v>1.238944330524767e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>94309587.79631107</v>
+        <v>17.9781658431129</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.238944330524767e-06</v>
+        <v>0.0002085093098800761</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>17.9781658431129</v>
+        <v>11.79779995803559</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002085093098800761</v>
+        <v>1.109670603730113</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.79779995803559</v>
+        <v>0.02902201130705708</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.109670603730113</v>
+        <v>2.446453737673725</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02902201130705708</v>
+        <v>0.9534049438954418</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.446453737673725</v>
+        <v>1.731529405946904</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9534049438954418</v>
+        <v>11</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.731529405946904</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2638494093694715</v>
       </c>
     </row>
@@ -7615,72 +7513,66 @@
         <v>1.176997585874771e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.8280326513165825</v>
+        <v>4.329335634811135e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.5458007960643672</v>
+        <v>3.455791965098665e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.329335634811135e-07</v>
+        <v>-0.04294687945407244</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.455791965098665e-06</v>
+        <v>0.09738981374895772</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04294687945407244</v>
+        <v>0.01132347498465845</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.09738981374895772</v>
+        <v>1.80431756469723</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01132347498465845</v>
+        <v>1.694526924168343</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.752731649187578</v>
+        <v>4.421588921517508</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.694526924168343</v>
+        <v>2.998345404170117e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.421588921517508</v>
+        <v>63616755.89345849</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.998345404170117e-15</v>
+        <v>1.835378369301799e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>63616755.89345849</v>
+        <v>12.13457859028883</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.835378369301799e-06</v>
+        <v>0.0002010495756116054</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>12.13457859028883</v>
+        <v>9.050132179333977</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002010495756116054</v>
+        <v>1.665081572069095</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.050132179333977</v>
+        <v>0.01646694387028403</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.665081572069095</v>
+        <v>2.828749848148094</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01646694387028403</v>
+        <v>0.9532660742515783</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.828749848148094</v>
+        <v>1.691360497329076</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9532660742515783</v>
+        <v>8</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.691360497329076</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1896580333323368</v>
       </c>
     </row>
@@ -7695,72 +7587,66 @@
         <v>1.121569368720579e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.8387313283835472</v>
+        <v>4.050785141901432e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.4912427314710852</v>
+        <v>3.451095980029531e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4.050785141901432e-07</v>
+        <v>-0.03912790572346184</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.451095980029531e-06</v>
+        <v>0.1006301378719167</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.03912790572346184</v>
+        <v>0.01165415169622869</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1006301378719167</v>
+        <v>1.809964990999758</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01165415169622869</v>
+        <v>1.638204128221291</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.764428204725607</v>
+        <v>3.985542785419211</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.638204128221291</v>
+        <v>4.153512390422659e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.985542785419211</v>
+        <v>46800086.71118286</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.153512390422659e-15</v>
+        <v>2.502833705676555e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>46800086.71118286</v>
+        <v>9.09722268862957</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.502833705676555e-06</v>
+        <v>0.0001817560995858547</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>9.09722268862957</v>
+        <v>9.140776185835454</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001817560995858547</v>
+        <v>1.509666740450737</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.140776185835454</v>
+        <v>0.01518641084506696</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.509666740450737</v>
+        <v>2.84043914105927</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01518641084506696</v>
+        <v>0.9540404969803111</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.84043914105927</v>
+        <v>1.687830665544491</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9540404969803111</v>
+        <v>8</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.687830665544491</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1633191072979049</v>
       </c>
     </row>
@@ -7775,72 +7661,66 @@
         <v>1.071923124422097e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.8569928447740232</v>
+        <v>3.82364882579674e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.3919508577270627</v>
+        <v>3.446914756322944e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.82364882579674e-07</v>
+        <v>-0.03753539454793633</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.446914756322944e-06</v>
+        <v>0.1030471423001189</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.03753539454793633</v>
+        <v>0.01202530128368454</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1030471423001189</v>
+        <v>1.804238803020936</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01202530128368454</v>
+        <v>1.715117467892874</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.756367890733757</v>
+        <v>3.600457655853873</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.715117467892874</v>
+        <v>5.089499153568813e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.600457655853873</v>
+        <v>38750307.66186024</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>5.089499153568813e-15</v>
+        <v>3.019104107431833e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>38750307.66186024</v>
+        <v>7.642322426232662</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.019104107431833e-06</v>
+        <v>0.0001758475398704336</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>7.642322426232662</v>
+        <v>10.48995207998733</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001758475398704336</v>
+        <v>1.16210100202977</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.48995207998733</v>
+        <v>0.01935010408208953</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.16210100202977</v>
+        <v>2.666429639773332</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01935010408208953</v>
+        <v>0.9550999439871327</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.666429639773332</v>
+        <v>1.690328156750599</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9550999439871327</v>
+        <v>8</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.690328156750599</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1585637121568976</v>
       </c>
     </row>
@@ -7855,72 +7735,66 @@
         <v>1.026334577530678e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.884618062021811</v>
+        <v>3.650080924109575e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.2496127680146398</v>
+        <v>3.442972927704222e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.650080924109575e-07</v>
+        <v>-0.03792948054258186</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.442972927704222e-06</v>
+        <v>0.1065229459619752</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.03792948054258186</v>
+        <v>0.01278382077427439</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1065229459619752</v>
+        <v>1.790905936269658</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01278382077427439</v>
+        <v>1.69746904838566</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.739635337923105</v>
+        <v>3.524162913972068</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.69746904838566</v>
+        <v>5.312250040362194e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.524162913972068</v>
+        <v>38091307.70991223</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>5.312250040362194e-15</v>
+        <v>3.067290299334011e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>38091307.70991223</v>
+        <v>7.707797100342271</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.067290299334011e-06</v>
+        <v>0.0001895587175041334</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>7.707797100342271</v>
+        <v>11.8508388685912</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001895587175041334</v>
+        <v>1.063786921207991</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>11.8508388685912</v>
+        <v>0.02662207779416373</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.063786921207991</v>
+        <v>2.370158304476794</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.02662207779416373</v>
+        <v>0.9556232093785519</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.370158304476794</v>
+        <v>1.696127817784419</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9556232093785519</v>
+        <v>1</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.696127817784419</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.157418788501228</v>
       </c>
     </row>
@@ -7935,72 +7809,66 @@
         <v>9.82887149842976e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.9205603739915419</v>
+        <v>3.533327566697497e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.0683823518368305</v>
+        <v>3.439085496492423e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.533327566697497e-07</v>
+        <v>-0.03970060986603297</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.439085496492423e-06</v>
+        <v>0.1112800813199059</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.03970060986603297</v>
+        <v>0.01395802660933374</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1112800813199059</v>
+        <v>1.791214660848088</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01395802660933374</v>
+        <v>1.668689808336811</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.7385357973965</v>
+        <v>3.525823989166595</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.668689808336811</v>
+        <v>5.307245838100487e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.525823989166595</v>
+        <v>38502310.19266541</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>5.307245838100487e-15</v>
+        <v>3.038027340745538e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>38502310.19266541</v>
+        <v>7.867609250400636</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.038027340745538e-06</v>
+        <v>0.0001992685446302978</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>7.867609250400636</v>
+        <v>11.61870692690096</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001992685446302978</v>
+        <v>1.101221259574543</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.61870692690096</v>
+        <v>0.02690012778797849</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.101221259574543</v>
+        <v>2.395065281072224</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02690012778797849</v>
+        <v>0.9542163311415633</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.395065281072224</v>
+        <v>1.709382633034202</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9542163311415633</v>
+        <v>5</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.709382633034202</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1479118024146659</v>
       </c>
     </row>
@@ -8015,72 +7883,66 @@
         <v>9.396314175094529e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.9603434778943145</v>
+        <v>3.465706818109481e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.1428306895271585</v>
+        <v>3.435139400122781e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.465706818109481e-07</v>
+        <v>-0.04260817368847987</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.435139400122781e-06</v>
+        <v>0.1169728679519994</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04260817368847987</v>
+        <v>0.01549684575462409</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1169728679519994</v>
+        <v>1.796177975561115</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01549684575462409</v>
+        <v>1.65905899656332</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.741166757675226</v>
+        <v>3.538508867498858</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.65905899656332</v>
+        <v>5.269263115765385e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.538508867498858</v>
+        <v>38963913.27496215</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>5.269263115765385e-15</v>
+        <v>3.002074545305335e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>38963913.27496215</v>
+        <v>7.999724325947692</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.002074545305335e-06</v>
+        <v>0.0002084751557923548</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>7.999724325947692</v>
+        <v>9.914554940938643</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0002084751557923548</v>
+        <v>1.356530401098903</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.914554940938643</v>
+        <v>0.02049277418677898</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.356530401098903</v>
+        <v>2.560022735616913</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02049277418677898</v>
+        <v>0.9534226531129216</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.560022735616913</v>
+        <v>1.727742701132422</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9534226531129216</v>
+        <v>5</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.727742701132422</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1362828328929874</v>
       </c>
     </row>
@@ -8095,72 +7957,66 @@
         <v>8.95133711015251e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.9982568883552332</v>
+        <v>3.425819876566215e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.3723255433274537</v>
+        <v>3.431062521971452e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.425819876566215e-07</v>
+        <v>-0.04645070392304452</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.431062521971452e-06</v>
+        <v>0.1234945270225203</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04645070392304452</v>
+        <v>0.01740743655150915</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1234945270225203</v>
+        <v>1.802535846788794</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01740743655150915</v>
+        <v>1.669202275283532</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.745804466119524</v>
+        <v>3.561631038599325</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.669202275283532</v>
+        <v>5.201068898740044e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.561631038599325</v>
+        <v>39939799.4519975</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.201068898740044e-15</v>
+        <v>2.932503290044915e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>39939799.4519975</v>
+        <v>8.296680511376737</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.932503290044915e-06</v>
+        <v>0.0002015506555433039</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>8.296680511376737</v>
+        <v>9.158351793187506</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0002015506555433039</v>
+        <v>1.515648174527053</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.158351793187506</v>
+        <v>0.01690514337924801</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.515648174527053</v>
+        <v>2.679967136449715</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01690514337924801</v>
+        <v>0.9538800867298712</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.679967136449715</v>
+        <v>1.70108990797584</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9538800867298712</v>
+        <v>22</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.70108990797584</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1375133238352948</v>
       </c>
     </row>
@@ -8175,72 +8031,66 @@
         <v>8.479633313690574e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.024114320314927</v>
+        <v>3.42011005281823e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.5931371528250073</v>
+        <v>3.42681184148772e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.42011005281823e-07</v>
+        <v>-0.05126854892909939</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.42681184148772e-06</v>
+        <v>0.130774583894333</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05126854892909939</v>
+        <v>0.01972971783980596</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.130774583894333</v>
+        <v>1.799837769065069</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01972971783980596</v>
+        <v>1.674397335225593</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.742861641863581</v>
+        <v>3.562274887937633</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.674397335225593</v>
+        <v>5.19918897523607e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.562274887937633</v>
+        <v>39086100.48903912</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>5.19918897523607e-15</v>
+        <v>2.98854975942809e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>39086100.48903912</v>
+        <v>7.942921886094827</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.98854975942809e-06</v>
+        <v>0.0001807861080497182</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>7.942921886094827</v>
+        <v>10.21059537376791</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001807861080497182</v>
+        <v>1.201809212902077</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.21059537376791</v>
+        <v>0.01884808310318423</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.201809212902077</v>
+        <v>2.638419934244015</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01884808310318423</v>
+        <v>0.9538772579791823</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.638419934244015</v>
+        <v>1.689078455145522</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9538772579791823</v>
+        <v>22</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.689078455145522</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1482355916301091</v>
       </c>
     </row>
@@ -8255,72 +8105,66 @@
         <v>7.966546674165272e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.0196275553067</v>
+        <v>3.40020853831729e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.7430503819524463</v>
+        <v>3.422386469180874e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3.40020853831729e-07</v>
+        <v>-0.05626199428364251</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.422386469180874e-06</v>
+        <v>0.1394046395408348</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05626199428364251</v>
+        <v>0.02259827565796881</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1394046395408348</v>
+        <v>1.801194378105383</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02259827565796881</v>
+        <v>1.647494824507888</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.744904283724554</v>
+        <v>3.570338621019192</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.647494824507888</v>
+        <v>5.175730400464183e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.570338621019192</v>
+        <v>38761123.02139667</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>5.175730400464183e-15</v>
+        <v>2.998622119123043e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>38761123.02139667</v>
+        <v>7.776144976195722</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.998622119123043e-06</v>
+        <v>0.000188395477714808</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>7.776144976195722</v>
+        <v>11.85231926552982</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.000188395477714808</v>
+        <v>1.05890047629422</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.85231926552982</v>
+        <v>0.02646532044034279</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.05890047629422</v>
+        <v>2.368611866483126</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02646532044034279</v>
+        <v>0.95312792992118</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.368611866483126</v>
+        <v>1.711281730116587</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.95312792992118</v>
+        <v>22</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.711281730116587</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.154026944127389</v>
       </c>
     </row>
@@ -8335,72 +8179,66 @@
         <v>7.428554494112321e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.9741299842655621</v>
+        <v>3.301687020417397e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.7708336565913445</v>
+        <v>3.417902750426177e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3.301687020417397e-07</v>
+        <v>-0.06001514582232099</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.417902750426177e-06</v>
+        <v>0.1493124160545416</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.06001514582232099</v>
+        <v>0.02589362929951869</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1493124160545416</v>
+        <v>1.791555587529524</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02589362929951869</v>
+        <v>1.611668503405692</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.736157204791571</v>
+        <v>3.600101410613344</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.611668503405692</v>
+        <v>5.090506458280969e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.600101410613344</v>
+        <v>39034256.41422757</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>5.090506458280969e-15</v>
+        <v>2.97630845171445e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>39034256.41422757</v>
+        <v>7.756268131597745</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.97630845171445e-06</v>
+        <v>0.0001978229681854761</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>7.756268131597745</v>
+        <v>11.85482382244257</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001978229681854761</v>
+        <v>1.077538416448047</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.85482382244257</v>
+        <v>0.02780141638332376</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.077538416448047</v>
+        <v>2.401620791352583</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.02780141638332376</v>
+        <v>0.9539845773478337</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.401620791352583</v>
+        <v>1.722535908992511</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9539845773478337</v>
+        <v>22</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.722535908992511</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1468783477366202</v>
       </c>
     </row>
@@ -8415,72 +8253,66 @@
         <v>6.899381351591095e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.890941537653767</v>
+        <v>3.137309763766512e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.6748439549143179</v>
+        <v>3.413523292466813e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3.137309763766512e-07</v>
+        <v>-0.06201676460205433</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.413523292466813e-06</v>
+        <v>0.1591817968703152</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.06201676460205433</v>
+        <v>0.02918042346103305</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1591817968703152</v>
+        <v>1.793697280447667</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02918042346103305</v>
+        <v>1.578883947733842</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.740204461752148</v>
+        <v>3.650774363883425</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.578883947733842</v>
+        <v>4.950174143439242e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.650774363883425</v>
+        <v>40560608.52321908</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>4.950174143439242e-15</v>
+        <v>2.86589998878092e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>40560608.52321908</v>
+        <v>8.143843165017094</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.86589998878092e-06</v>
+        <v>0.0002128978772265865</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>8.143843165017094</v>
+        <v>10.52880957046188</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0002128978772265865</v>
+        <v>1.276437778547037</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.52880957046188</v>
+        <v>0.02360097109192575</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.276437778547037</v>
+        <v>2.487914983865199</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.02360097109192575</v>
+        <v>0.9543245746087831</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.487914983865199</v>
+        <v>1.69853881949104</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9543245746087831</v>
+        <v>22</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.69853881949104</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1379754493912868</v>
       </c>
     </row>
@@ -8495,72 +8327,66 @@
         <v>6.403761238714513e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.7801174846654183</v>
+        <v>2.936423901622596e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.4852804622282822</v>
+        <v>3.40938988109941e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.936423901622596e-07</v>
+        <v>-0.06201124619121618</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.40938988109941e-06</v>
+        <v>0.1685491692375279</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.06201124619121618</v>
+        <v>0.03224767680693723</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1685491692375279</v>
+        <v>1.793255650758823</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.03224767680693723</v>
+        <v>1.546292291807742</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.744275820448788</v>
+        <v>3.770884356041069</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.546292291807742</v>
+        <v>4.639850998438195e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.770884356041069</v>
+        <v>43993975.51072002</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4.639850998438195e-15</v>
+        <v>2.643590107127493e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>43993975.51072002</v>
+        <v>8.980291860908414</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.643590107127493e-06</v>
+        <v>0.0002183998099123879</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>8.980291860908414</v>
+        <v>9.374488082141612</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0002183998099123879</v>
+        <v>1.507777258367067</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.374488082141612</v>
+        <v>0.01919319954850925</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.507777258367067</v>
+        <v>2.549922587858962</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01919319954850925</v>
+        <v>0.954248887139226</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.549922587858962</v>
+        <v>1.70843447563242</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.954248887139226</v>
+        <v>22</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.70843447563242</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.143278490042479</v>
       </c>
     </row>
@@ -8575,72 +8401,66 @@
         <v>5.953929309263036e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.6543872639373011</v>
+        <v>2.723339834982816e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.2482360824822232</v>
+        <v>3.405615817989382e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.723339834982816e-07</v>
+        <v>-0.05985046765596375</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.405615817989382e-06</v>
+        <v>0.1779116911585041</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05985046765596375</v>
+        <v>0.03522616669496562</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1779116911585041</v>
+        <v>1.791696470861116</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03522616669496562</v>
+        <v>1.515347607545144</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.747765944916195</v>
+        <v>4.046113842618142</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.515347607545144</v>
+        <v>4.030085552984665e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.046113842618142</v>
+        <v>50678191.55316164</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>4.030085552984665e-15</v>
+        <v>2.297268523986106e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>50678191.55316164</v>
+        <v>10.35038449331112</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.297268523986106e-06</v>
+        <v>0.0001896063474145971</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>10.35038449331112</v>
+        <v>9.847720908616711</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001896063474145971</v>
+        <v>1.28032948176558</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.847720908616711</v>
+        <v>0.01838756986210254</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.28032948176558</v>
+        <v>2.61073639807381</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01838756986210254</v>
+        <v>0.9545034641967276</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.61073639807381</v>
+        <v>1.708181387160181</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9545034641967276</v>
+        <v>22</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.708181387160181</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1715013831768727</v>
       </c>
     </row>
@@ -8655,72 +8475,66 @@
         <v>5.552374366194857e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.5241860920851683</v>
+        <v>2.514011255861523e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.009907792689210382</v>
+        <v>3.402294528781942e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.514011255861523e-07</v>
+        <v>-0.05518253347156253</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.402294528781942e-06</v>
+        <v>0.1885778971619397</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05518253347156253</v>
+        <v>0.03859513543173219</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1885778971619397</v>
+        <v>1.840113168102524</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.03859513543173219</v>
+        <v>1.724630341358605</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.818632514418515</v>
+        <v>3.419889442967587</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.724630341358605</v>
+        <v>3.872234867796416e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.419889442967587</v>
+        <v>53710023.28319712</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.872234867796416e-15</v>
+        <v>2.187029229502795e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>53710023.28319712</v>
+        <v>11.17049381816263</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.187029229502795e-06</v>
+        <v>0.000186444239742136</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>11.17049381816263</v>
+        <v>12.17295852437235</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.000186444239742136</v>
+        <v>1.027479621880958</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>12.17295852437235</v>
+        <v>0.02762747883126357</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.027479621880958</v>
+        <v>2.392535618558712</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02762747883126357</v>
+        <v>0.9552303099561726</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.392535618558712</v>
+        <v>1.585913734659142</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9552303099561726</v>
+        <v>21</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.585913734659142</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.202495329127831</v>
       </c>
     </row>
@@ -8735,72 +8549,66 @@
         <v>5.198461663625175e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.3932548919068143</v>
+        <v>2.316925745011621e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.1942161973595602</v>
+        <v>3.399512989506739e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.316925745011621e-07</v>
+        <v>-0.04796300829028449</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.399512989506739e-06</v>
+        <v>0.2016235822798926</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.04796300829028449</v>
+        <v>0.04293803579445261</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.2016235822798926</v>
+        <v>1.867535461363625</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.04293803579445261</v>
+        <v>1.704444575461432</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.853250900884874</v>
+        <v>3.407636996991416</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.704444575461432</v>
+        <v>3.900130822467209e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.407636996991416</v>
+        <v>54761579.84165487</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.900130822467209e-15</v>
+        <v>2.165750877068182e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>54761579.84165487</v>
+        <v>11.69583175876171</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.165750877068182e-06</v>
+        <v>0.0002013399223913478</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>11.69583175876171</v>
+        <v>13.2556926792066</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0002013399223913478</v>
+        <v>1.019902054180495</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>13.2556926792066</v>
+        <v>0.03537811998469853</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.019902054180495</v>
+        <v>2.437351704933567</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.03537811998469853</v>
+        <v>0.9558130171034227</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.437351704933567</v>
+        <v>1.53419794840944</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9558130171034227</v>
+        <v>21</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.53419794840944</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.222162699574195</v>
       </c>
     </row>
@@ -8815,72 +8623,66 @@
         <v>4.895779270435834e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.260144027880731</v>
+        <v>2.137182652710334e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.35178692840545</v>
+        <v>3.397309481674459e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.137182652710334e-07</v>
+        <v>-0.03917482509034808</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.397309481674459e-06</v>
+        <v>0.2157489188924979</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.03917482509034808</v>
+        <v>0.04806753893754166</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2157489188924979</v>
+        <v>1.867961038066584</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.04806753893754166</v>
+        <v>1.60834895440007</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.851407815048028</v>
+        <v>3.724096849980725</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.60834895440007</v>
+        <v>3.265456409071539e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.724096849980725</v>
+        <v>65545030.41725184</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.265456409071539e-15</v>
+        <v>1.810308676901017e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>65545030.41725184</v>
+        <v>14.02889385777576</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.810308676901017e-06</v>
+        <v>0.0002299067476939799</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>14.02889385777576</v>
+        <v>12.68519310796674</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0002299067476939799</v>
+        <v>1.194241558756358</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>12.68519310796674</v>
+        <v>0.036995242949722</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.194241558756358</v>
+        <v>2.549578904376286</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.036995242949722</v>
+        <v>0.9552214678105257</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.549578904376286</v>
+        <v>1.530619434777571</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9552214678105257</v>
+        <v>22</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.530619434777571</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2710467327156659</v>
       </c>
     </row>
@@ -8895,72 +8697,66 @@
         <v>4.65043491173607e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.1281432001577067</v>
+        <v>1.97648963014648e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.4688912417632589</v>
+        <v>3.395649209897173e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.97648963014648e-07</v>
+        <v>-0.03059496964570915</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>3.395649209897173e-06</v>
+        <v>0.2276174507679162</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.03059496964570915</v>
+        <v>0.05273544249236974</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.2276174507679162</v>
+        <v>1.859867447626774</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.05273544249236974</v>
+        <v>1.58609386914542</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.834073577999236</v>
+        <v>4.421676298877491</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.58609386914542</v>
+        <v>2.280139076220366e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.421676298877491</v>
+        <v>92599517.89481585</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>2.280139076220366e-15</v>
+        <v>1.279488077927043e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>92599517.89481585</v>
+        <v>19.55144176151713</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.279488077927043e-06</v>
+        <v>0.0002337935075519071</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>19.55144176151713</v>
+        <v>10.5584413036509</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0002337935075519071</v>
+        <v>1.526758196467065</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>10.5584413036509</v>
+        <v>0.02606345984735935</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.526758196467065</v>
+        <v>2.740870871315576</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.02606345984735935</v>
+        <v>0.9553480499565188</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.740870871315576</v>
+        <v>1.587912594058984</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9553480499565188</v>
+        <v>22</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.587912594058984</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.3119198718242752</v>
       </c>
     </row>
@@ -8975,72 +8771,66 @@
         <v>4.461931874625262e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.008883810954825575</v>
+        <v>1.837764905891833e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.5501663832017054</v>
+        <v>3.394422659529741e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.837764905891833e-07</v>
+        <v>-0.02361078063673594</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>3.394422659529741e-06</v>
+        <v>0.2360495723111052</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.02361078063673594</v>
+        <v>0.0562708785916363</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.2360495723111052</v>
+        <v>1.869866828581585</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.0562708785916363</v>
+        <v>1.674094014783989</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.844836119851093</v>
+        <v>4.167737217070602</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.674094014783989</v>
+        <v>1.513353131605214e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.167737217070602</v>
+        <v>137278643.0115884</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.513353131605214e-15</v>
+        <v>8.640596518775361e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>137278643.0115884</v>
+        <v>28.5197841918803</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>8.640596518775361e-07</v>
+        <v>0.0002089744944048553</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>28.5197841918803</v>
+        <v>10.15835467288528</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0002089744944048553</v>
+        <v>1.456407381088328</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>10.15835467288528</v>
+        <v>0.02156453148126577</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.456407381088328</v>
+        <v>2.771601904472911</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.02156453148126577</v>
+        <v>0.9555257043020325</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.771601904472911</v>
+        <v>1.553432883076064</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9555257043020325</v>
+        <v>22</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.553432883076064</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2618784357870786</v>
       </c>
     </row>
@@ -9055,72 +8845,66 @@
         <v>4.318643972969499e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.08983954016721121</v>
+        <v>1.724780303748957e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.5971694230526667</v>
+        <v>3.39348728975139e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.724780303748957e-07</v>
+        <v>-0.01962142312838844</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>3.39348728975139e-06</v>
+        <v>0.2420611555508053</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.01962142312838844</v>
+        <v>0.05897504077516556</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.2420611555508053</v>
+        <v>1.881046249691062</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.05897504077516556</v>
+        <v>1.860621953172568</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.862556631970059</v>
+        <v>3.828047759688984</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.860621953172568</v>
+        <v>1.696705230896534e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.828047759688984</v>
+        <v>118130505.697818</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.696705230896534e-15</v>
+        <v>1.001164635842333e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>118130505.697818</v>
+        <v>23.67720994207618</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.001164635842333e-06</v>
+        <v>0.0001986113756443024</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>23.67720994207618</v>
+        <v>11.20445995113691</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001986113756443024</v>
+        <v>1.163324217781812</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>11.20445995113691</v>
+        <v>0.0249336567649184</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.163324217781812</v>
+        <v>2.585862391180659</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.0249336567649184</v>
+        <v>0.9549430797191454</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.585862391180659</v>
+        <v>1.513049767200944</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9549430797191454</v>
+        <v>22</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.513049767200944</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.217289773622393</v>
       </c>
     </row>
@@ -9135,72 +8919,66 @@
         <v>4.201182570878109e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.1705415474007148</v>
+        <v>1.641394695570048e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.6131740488860249</v>
+        <v>3.39268191560503e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.641394695570048e-07</v>
+        <v>-0.01857908194792805</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3.39268191560503e-06</v>
+        <v>0.2479820068848112</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.01857908194792805</v>
+        <v>0.06183762886136888</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.2479820068848112</v>
+        <v>1.87601435300415</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.06183762886136888</v>
+        <v>1.973257891864691</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.845306215709428</v>
+        <v>3.747038250700853</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.973257891864691</v>
+        <v>1.770862497564761e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.747038250700853</v>
+        <v>117040445.3922262</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.770862497564761e-15</v>
+        <v>1.013095634466781e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>117040445.3922262</v>
+        <v>24.25809946141407</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.013095634466781e-06</v>
+        <v>0.0002057500193228835</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>24.25809946141407</v>
+        <v>12.55273755147276</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0002057500193228835</v>
+        <v>1.023618829900206</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>12.55273755147276</v>
+        <v>0.03242028156716909</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.023618829900206</v>
+        <v>2.291104219482088</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.03242028156716909</v>
+        <v>0.9552815103086558</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.291104219482088</v>
+        <v>1.547039662828016</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9552815103086558</v>
+        <v>23</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.547039662828016</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2060262956059188</v>
       </c>
     </row>
@@ -9215,72 +8993,66 @@
         <v>4.095067302585622e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.2419667029886579</v>
+        <v>1.589205037333063e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.6098245014887564</v>
+        <v>3.391911061258189e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.589205037333063e-07</v>
+        <v>-0.01867018004629287</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>3.391911061258189e-06</v>
+        <v>0.254251398699056</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.01867018004629287</v>
+        <v>0.06499160138572167</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.254251398699056</v>
+        <v>1.868012504156844</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.06499160138572167</v>
+        <v>1.977406167120624</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.830618889703452</v>
+        <v>3.728582655105038</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.977406167120624</v>
+        <v>1.788436578653727e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.728582655105038</v>
+        <v>115695065.7655161</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.788436578653727e-15</v>
+        <v>1.023360165680311e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>115695065.7655161</v>
+        <v>23.93884641488229</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.023360165680311e-06</v>
+        <v>0.0002072179477271573</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>23.93884641488229</v>
+        <v>12.01953533151796</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0002072179477271573</v>
+        <v>1.086528695250659</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>12.01953533151796</v>
+        <v>0.02993661726445333</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.086528695250659</v>
+        <v>2.411904210409403</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02993661726445333</v>
+        <v>0.9556057311665855</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.411904210409403</v>
+        <v>1.561002782108186</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9556057311665855</v>
+        <v>23</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.561002782108186</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.192445917442435</v>
       </c>
     </row>
@@ -9657,7 +9429,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.461138131622323</v>
+        <v>1.460610157514948</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.462699584584433</v>
@@ -9746,7 +9518,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.438476723083542</v>
+        <v>1.435807559011299</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.442312232618243</v>
@@ -9835,7 +9607,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.461609317159742</v>
+        <v>1.455440003408103</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.51253036134508</v>
@@ -9924,7 +9696,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.502480764894017</v>
+        <v>1.497175431500661</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.350712204404051</v>
@@ -10013,7 +9785,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.519143801634994</v>
+        <v>1.512281620063793</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.391430813501795</v>
@@ -10102,7 +9874,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.521628404506182</v>
+        <v>1.517009176868482</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.430201699885794</v>
@@ -10191,7 +9963,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.548280276757382</v>
+        <v>1.536875854100314</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.251495300493953</v>
@@ -10280,7 +10052,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.548493209331899</v>
+        <v>1.537382314535275</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.553510946964348</v>
@@ -10369,7 +10141,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.558190984599497</v>
+        <v>1.5483250335205</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.576236971725528</v>
@@ -10458,7 +10230,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.566547949038721</v>
+        <v>1.548982946002632</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.417621270002648</v>
@@ -10547,7 +10319,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.583522160060468</v>
+        <v>1.562407222403001</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.608180199478166</v>
@@ -10636,7 +10408,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.56124183277992</v>
+        <v>1.544268232084375</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.65402205861659</v>
@@ -10725,7 +10497,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.569680617534194</v>
+        <v>1.549503023780197</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.62335471928891</v>
@@ -10814,7 +10586,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.562551669342113</v>
+        <v>1.540823697337782</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.502237561983841</v>
@@ -10903,7 +10675,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.54660042936735</v>
+        <v>1.529276453541933</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.624280259166334</v>
@@ -10992,7 +10764,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.530485708166866</v>
+        <v>1.512863131465168</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.773067290139595</v>
@@ -11081,7 +10853,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.537156344828499</v>
+        <v>1.518537057282522</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.61414627428189</v>
@@ -11170,7 +10942,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.558684764050554</v>
+        <v>1.537761230272502</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.735071275708134</v>
@@ -11259,7 +11031,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.531396686899114</v>
+        <v>1.515589258263592</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.614929166016848</v>
@@ -11348,7 +11120,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.542942386325324</v>
+        <v>1.527401659058762</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.460073678624303</v>
@@ -11437,7 +11209,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.540086258200702</v>
+        <v>1.52522641791642</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.638848805237325</v>
@@ -11526,7 +11298,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.533016674381644</v>
+        <v>1.524343677885172</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.587937411574833</v>
@@ -11615,7 +11387,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.538316080659758</v>
+        <v>1.52810397947154</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.77320406578387</v>
@@ -11704,7 +11476,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.523886401508599</v>
+        <v>1.510446702741888</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.637893167874802</v>
@@ -11793,7 +11565,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.500465258047328</v>
+        <v>1.490745673874172</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.532861149216085</v>
@@ -11882,7 +11654,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.4786853404331</v>
+        <v>1.466802261551992</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.580169172604835</v>
@@ -11971,7 +11743,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.478399217918262</v>
+        <v>1.472194788779519</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.610822205566761</v>
@@ -12060,7 +11832,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.480593284981076</v>
+        <v>1.476020797337179</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.259520885990581</v>
@@ -12149,7 +11921,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.482648930343358</v>
+        <v>1.478046764860012</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.444792160063019</v>
@@ -12238,7 +12010,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.498891058311121</v>
+        <v>1.489767317307379</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.357538017633668</v>
@@ -12327,7 +12099,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.508723216394952</v>
+        <v>1.502455503387474</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.593249166482908</v>
@@ -12416,7 +12188,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.515616337982663</v>
+        <v>1.510241376414711</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.550372008395394</v>
@@ -12505,7 +12277,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.510196268244296</v>
+        <v>1.506174652351133</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.481034189964223</v>
@@ -12594,7 +12366,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.530876235399183</v>
+        <v>1.524109749282724</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.484393223289922</v>
@@ -12683,7 +12455,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.532920459867624</v>
+        <v>1.524213194123991</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.368250193170085</v>
@@ -12772,7 +12544,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.534606114764753</v>
+        <v>1.529076254453052</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.514587257224414</v>
@@ -12861,7 +12633,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.551700349696989</v>
+        <v>1.542342962964003</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.384900264742375</v>
@@ -12950,7 +12722,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.564035129880514</v>
+        <v>1.559692204248315</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.428765921775835</v>
@@ -13039,7 +12811,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.576026348360292</v>
+        <v>1.573450091039471</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.379634933327067</v>
@@ -13128,7 +12900,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.581742977300311</v>
+        <v>1.581769146667636</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.368436499293713</v>
@@ -13217,7 +12989,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.651055014224806</v>
+        <v>1.645130640600224</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.015160369056535</v>
@@ -13306,7 +13078,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.658125982215028</v>
+        <v>1.65373893685637</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.026495321471655</v>
@@ -13395,7 +13167,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.65873218390855</v>
+        <v>1.653865670197248</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.288607893240699</v>
@@ -13484,7 +13256,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.670569794190569</v>
+        <v>1.663632993228392</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.392743763057378</v>
@@ -13573,7 +13345,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.64538459499587</v>
+        <v>1.647530040692178</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.842198988198012</v>
@@ -13662,7 +13434,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.663636517226922</v>
+        <v>1.66407516629303</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.566876315451147</v>
@@ -13751,7 +13523,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.681166726480998</v>
+        <v>1.676551937004027</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.933278171274664</v>
@@ -13840,7 +13612,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.690650000774554</v>
+        <v>1.68313606832982</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.8515047968446</v>
@@ -13929,7 +13701,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.675093262870393</v>
+        <v>1.673072396518238</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.939386229638709</v>
@@ -14018,7 +13790,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.680072209766555</v>
+        <v>1.677168859868119</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.00640817082387</v>
@@ -14107,7 +13879,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.652131222928621</v>
+        <v>1.648244533301638</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.729404700400435</v>
@@ -14196,7 +13968,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.651259525604</v>
+        <v>1.649305192432893</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.008172794340622</v>
@@ -14285,7 +14057,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.625875030937158</v>
+        <v>1.625249192981491</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.748964105047428</v>
@@ -14374,7 +14146,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.617544746214136</v>
+        <v>1.617204537615178</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.718814440619083</v>
@@ -14463,7 +14235,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.591429593115554</v>
+        <v>1.590662335890723</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.648079042258277</v>
@@ -14552,7 +14324,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.557774514722873</v>
+        <v>1.559346889532891</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.712324902701038</v>
@@ -14641,7 +14413,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.530323344588841</v>
+        <v>1.531146593642024</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.504431621032244</v>
@@ -14730,7 +14502,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.532198606297193</v>
+        <v>1.536319271974376</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.676871547939751</v>
@@ -14819,7 +14591,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.53378540430408</v>
+        <v>1.544758316851493</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.417791675529091</v>
@@ -14908,7 +14680,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.522311511109683</v>
+        <v>1.528826156046545</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.689928126685946</v>
@@ -14997,7 +14769,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.523074229008534</v>
+        <v>1.52451246206169</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.668164652792748</v>
@@ -15086,7 +14858,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.491758788593035</v>
+        <v>1.495424544655392</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.815274512755164</v>
@@ -15175,7 +14947,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.494407597973939</v>
+        <v>1.49375424056879</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.723518798809251</v>
@@ -15264,7 +15036,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.491583912542922</v>
+        <v>1.486165968031049</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.821772601034059</v>
@@ -15353,7 +15125,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.4956677428452</v>
+        <v>1.487660619505939</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.548257248208154</v>
@@ -15442,7 +15214,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.486396533547873</v>
+        <v>1.480661123708407</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.592248752393617</v>
@@ -15531,7 +15303,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.470043814500964</v>
+        <v>1.46762195816117</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.675913318325413</v>
@@ -15620,7 +15392,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.46888880541929</v>
+        <v>1.46398219756614</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.631198342426494</v>
@@ -15709,7 +15481,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.450371652984258</v>
+        <v>1.452223488910259</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.617361596069461</v>
@@ -15798,7 +15570,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.472963615861587</v>
+        <v>1.475270649817121</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.569051188244145</v>
@@ -15887,7 +15659,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.485654299414148</v>
+        <v>1.486377024004958</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.667356868786799</v>
@@ -15976,7 +15748,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.510669485603982</v>
+        <v>1.513194007866491</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.606023256105765</v>
@@ -16065,7 +15837,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.513596922649082</v>
+        <v>1.514063652242618</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.60204329186615</v>
@@ -16154,7 +15926,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.496152024354725</v>
+        <v>1.497858112439864</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.732621508019025</v>
@@ -16243,7 +16015,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.51938067265666</v>
+        <v>1.512227721428177</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.80215087751868</v>
@@ -16332,7 +16104,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.508243893090154</v>
+        <v>1.510171868823785</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.520387060801552</v>
@@ -16421,7 +16193,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.514028380818031</v>
+        <v>1.518434394604903</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.647314096642563</v>
@@ -16510,7 +16282,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.523774339548925</v>
+        <v>1.532439434395731</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.527322081965835</v>
@@ -16599,7 +16371,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.537731493502706</v>
+        <v>1.544555874891703</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.647833976532328</v>
@@ -16688,7 +16460,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.524180362701493</v>
+        <v>1.538204161755573</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.872552526242716</v>
@@ -16777,7 +16549,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.552035594552819</v>
+        <v>1.563566536289514</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.78023747339821</v>
@@ -17063,7 +16835,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.578658779373206</v>
+        <v>1.547033105614252</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.41489269773729</v>
@@ -17152,7 +16924,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.563217636856881</v>
+        <v>1.533353615070121</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.474805488411818</v>
@@ -17241,7 +17013,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.560782695799712</v>
+        <v>1.531080887785402</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.458246715479174</v>
@@ -17330,7 +17102,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.560843960175459</v>
+        <v>1.533318526979849</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.186904090886736</v>
@@ -17419,7 +17191,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.567265406126743</v>
+        <v>1.537655243333412</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.358669532680878</v>
@@ -17508,7 +17280,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.554507143487832</v>
+        <v>1.523037600623021</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.990352105176275</v>
@@ -17597,7 +17369,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.569436943665642</v>
+        <v>1.525816499121248</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.790362144005614</v>
@@ -17686,7 +17458,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.570391390478927</v>
+        <v>1.52357353742647</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.150255096452818</v>
@@ -17775,7 +17547,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.573933322442242</v>
+        <v>1.523915160766871</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.298131408727501</v>
@@ -17864,7 +17636,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.590394515516255</v>
+        <v>1.533307030095037</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.979884598336683</v>
@@ -17953,7 +17725,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.588207842147502</v>
+        <v>1.533703115137335</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.06091387412866</v>
@@ -18042,7 +17814,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.595755662483891</v>
+        <v>1.539185444519113</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.095394027083947</v>
@@ -18131,7 +17903,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.595486863145012</v>
+        <v>1.535234961967249</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.308824182585338</v>
@@ -18220,7 +17992,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.592284245109037</v>
+        <v>1.52480165513094</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.034301951491359</v>
@@ -18309,7 +18081,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.593177335444219</v>
+        <v>1.521515967630721</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.096012704906903</v>
@@ -18398,7 +18170,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.595351862067687</v>
+        <v>1.522023575314549</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.30312877864707</v>
@@ -18487,7 +18259,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609721660321821</v>
+        <v>1.519185664667722</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.099280148858696</v>
@@ -18576,7 +18348,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.621207452775653</v>
+        <v>1.529379572465263</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.169655025622979</v>
@@ -18665,7 +18437,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.622390830486429</v>
+        <v>1.5279242752012</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.368240034314432</v>
@@ -18754,7 +18526,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.6207590053057</v>
+        <v>1.527698366409479</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.964126581568891</v>
@@ -18843,7 +18615,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.627232707532882</v>
+        <v>1.533334143858041</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.461731152017923</v>
@@ -18932,7 +18704,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.628906190292313</v>
+        <v>1.541398122206102</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.794359901306619</v>
@@ -19021,7 +18793,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.618469415427809</v>
+        <v>1.531696733012122</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.718858810927968</v>
@@ -19110,7 +18882,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.608337510162773</v>
+        <v>1.520904930032821</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.185458497355361</v>
@@ -19199,7 +18971,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.590569788264178</v>
+        <v>1.503182674321619</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.194856154436323</v>
@@ -19288,7 +19060,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.600141612111451</v>
+        <v>1.507867028167709</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.825226963430064</v>
@@ -19377,7 +19149,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.592416428817959</v>
+        <v>1.505361043918038</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.859738869850553</v>
@@ -19466,7 +19238,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.589704901345032</v>
+        <v>1.50596646095318</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.153163662110761</v>
@@ -19555,7 +19327,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.590564255052491</v>
+        <v>1.511706241238429</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.21081862899204</v>
@@ -19644,7 +19416,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.581499617559478</v>
+        <v>1.508057841697361</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.995987011878047</v>
@@ -19733,7 +19505,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.577984741794708</v>
+        <v>1.507013935867463</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.147361041609288</v>
@@ -19822,7 +19594,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.576296487008903</v>
+        <v>1.519486732636227</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.836140563392651</v>
@@ -19911,7 +19683,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.563438038869333</v>
+        <v>1.505643095451479</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.042713143397862</v>
@@ -20000,7 +19772,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.56632040966839</v>
+        <v>1.515753867957</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.879327965108048</v>
@@ -20089,7 +19861,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.579305201085067</v>
+        <v>1.527330139565914</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.260181281706346</v>
@@ -20178,7 +19950,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.578017107521787</v>
+        <v>1.53047247832658</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.024759445053081</v>
@@ -20267,7 +20039,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.578005662490639</v>
+        <v>1.530066700734583</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.913209152995676</v>
@@ -20356,7 +20128,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.587404482143258</v>
+        <v>1.547763853849992</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.019483735930693</v>
@@ -20445,7 +20217,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.587693191011611</v>
+        <v>1.55144991651463</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.014306851094418</v>
@@ -20534,7 +20306,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.597594815558381</v>
+        <v>1.563889167906268</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.148950152829968</v>
@@ -20623,7 +20395,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.599634469328406</v>
+        <v>1.573525672649481</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.170292219308604</v>
@@ -20712,7 +20484,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.601219405347114</v>
+        <v>1.57208025759018</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.84844418754391</v>
@@ -20801,7 +20573,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.612272578163858</v>
+        <v>1.583085773256203</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.859503903520474</v>
@@ -20890,7 +20662,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.613116535670159</v>
+        <v>1.585325873176842</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.106670699418238</v>
@@ -20979,7 +20751,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.616604607320912</v>
+        <v>1.585726476414278</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.893214221699327</v>
@@ -21068,7 +20840,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.625381289552684</v>
+        <v>1.599629594025353</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.093907721667325</v>
@@ -21157,7 +20929,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.636843618675336</v>
+        <v>1.603283568038009</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.11848084669081</v>
@@ -21246,7 +21018,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.647388517564417</v>
+        <v>1.617458748998424</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.235926578583229</v>
@@ -21335,7 +21107,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.652171820199496</v>
+        <v>1.616603831552839</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.145762333700492</v>
@@ -21424,7 +21196,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.660859330888828</v>
+        <v>1.6179892758303</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.98096095047302</v>
@@ -21513,7 +21285,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.652809400385383</v>
+        <v>1.604102493487319</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.211350140212968</v>
@@ -21602,7 +21374,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.648119482547104</v>
+        <v>1.595393026291078</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.719507372289792</v>
@@ -21691,7 +21463,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.643306205816676</v>
+        <v>1.589476770100613</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.49248995007202</v>
@@ -21780,7 +21552,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.64061456538542</v>
+        <v>1.586268728404177</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.514919505046834</v>
@@ -21869,7 +21641,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.639798239339206</v>
+        <v>1.584336923229839</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.207272849125633</v>
@@ -21958,7 +21730,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.625683522937208</v>
+        <v>1.568991458106564</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.242418459742916</v>
@@ -22047,7 +21819,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.62679341414226</v>
+        <v>1.565099904042979</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.374197936346747</v>
@@ -22136,7 +21908,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.622022444507722</v>
+        <v>1.564835206356115</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.36913833041785</v>
@@ -22225,7 +21997,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.616641831194435</v>
+        <v>1.56355144794156</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.849548826823214</v>
@@ -22314,7 +22086,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.618006490091607</v>
+        <v>1.565557686321225</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.16172297896764</v>
@@ -22403,7 +22175,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.620395288357371</v>
+        <v>1.564471471873168</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.142073639341931</v>
@@ -22492,7 +22264,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.616571471044354</v>
+        <v>1.564873143389889</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.864746932341987</v>
@@ -22581,7 +22353,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.627168738234031</v>
+        <v>1.56179567737746</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.483863650746125</v>
@@ -22670,7 +22442,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.617973383953418</v>
+        <v>1.547373197066</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.168568283436247</v>
@@ -22759,7 +22531,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.613159704480581</v>
+        <v>1.543912645061414</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.917123350734459</v>
@@ -22848,7 +22620,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.618505257226725</v>
+        <v>1.554336388518746</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.516585431776505</v>
@@ -22937,7 +22709,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.618878634526037</v>
+        <v>1.552946701001406</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.443904277484177</v>
@@ -23026,7 +22798,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.626865117342945</v>
+        <v>1.553642617174763</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.860707648898306</v>
@@ -23115,7 +22887,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.627353621579519</v>
+        <v>1.560997842340058</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.426828787837883</v>
@@ -23204,7 +22976,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.638339882680436</v>
+        <v>1.575071296205129</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.465189053488292</v>
@@ -23293,7 +23065,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.640816809324919</v>
+        <v>1.578195521690509</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.195806031533441</v>
@@ -23382,7 +23154,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.647277765322558</v>
+        <v>1.587596941898926</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.024038696871223</v>
@@ -23471,7 +23243,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.642128149691756</v>
+        <v>1.576134846023322</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.016400161522732</v>
@@ -23560,7 +23332,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.639780015858692</v>
+        <v>1.578931888853867</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.00977144176812</v>
@@ -23649,7 +23421,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.643627538027748</v>
+        <v>1.585462760329299</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.200051464095613</v>
@@ -23738,7 +23510,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.643948562874014</v>
+        <v>1.591581436893466</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.088386326918624</v>
@@ -23827,7 +23599,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.64025507731151</v>
+        <v>1.582064620079309</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.186714223008086</v>
@@ -23916,7 +23688,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.63897298429393</v>
+        <v>1.583795632025728</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.727914347580332</v>
@@ -24005,7 +23777,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.639980754994428</v>
+        <v>1.585844978869358</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.187767356829021</v>
@@ -24094,7 +23866,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.634490920278654</v>
+        <v>1.584303213890492</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.109657029483391</v>
@@ -24183,7 +23955,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.63597773043432</v>
+        <v>1.583186749324252</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.014346996632753</v>
@@ -24469,7 +24241,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.51182793266366</v>
+        <v>1.486648935528103</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.09982888118785</v>
@@ -24558,7 +24330,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.506752368916601</v>
+        <v>1.478132228194009</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.047983573120351</v>
@@ -24647,7 +24419,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.519794381611372</v>
+        <v>1.493368311765933</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.594295863891972</v>
@@ -24736,7 +24508,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.527475676170214</v>
+        <v>1.495390912416195</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.890904311286105</v>
@@ -24825,7 +24597,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.531353113776706</v>
+        <v>1.499636698861318</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.843761773238394</v>
@@ -24914,7 +24686,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.531781723395344</v>
+        <v>1.497443444804592</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.762078601177457</v>
@@ -25003,7 +24775,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.551741888067641</v>
+        <v>1.51127912954672</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.567753188952457</v>
@@ -25092,7 +24864,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.565276676634589</v>
+        <v>1.519123062724864</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.664398459589117</v>
@@ -25181,7 +24953,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.563692414378534</v>
+        <v>1.514950773509737</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.775827375160631</v>
@@ -25270,7 +25042,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.575606872396475</v>
+        <v>1.523284900141243</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.806139136651538</v>
@@ -25359,7 +25131,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.575599893276846</v>
+        <v>1.522922334001127</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.970734137506458</v>
@@ -25448,7 +25220,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.58050102847165</v>
+        <v>1.525078238809576</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.079993141404595</v>
@@ -25537,7 +25309,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.578447121608223</v>
+        <v>1.516773562404043</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.11911740116282</v>
@@ -25626,7 +25398,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.562591173649075</v>
+        <v>1.492390315796324</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.004313836841288</v>
@@ -25715,7 +25487,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.567755972691303</v>
+        <v>1.501082848370476</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.674192254178286</v>
@@ -25804,7 +25576,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.584763855939127</v>
+        <v>1.508712647443383</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.170915391983607</v>
@@ -25893,7 +25665,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.580337409338982</v>
+        <v>1.498998470735904</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.195600049078252</v>
@@ -25982,7 +25754,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.581048156833907</v>
+        <v>1.497773890077819</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.483358229058631</v>
@@ -26071,7 +25843,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.580384828567771</v>
+        <v>1.489400636525985</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.041338650840476</v>
@@ -26160,7 +25932,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.587920868312264</v>
+        <v>1.492372795008562</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.049310772169828</v>
@@ -26249,7 +26021,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.579649044400387</v>
+        <v>1.485628411371481</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.113275928893279</v>
@@ -26338,7 +26110,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.576418386804964</v>
+        <v>1.488709963925722</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.210551277410376</v>
@@ -26427,7 +26199,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.569063660259959</v>
+        <v>1.48541416675688</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.172071799852909</v>
@@ -26516,7 +26288,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.564908934711076</v>
+        <v>1.476060216008162</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.891458299606538</v>
@@ -26605,7 +26377,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.561188075510333</v>
+        <v>1.467469448366496</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.138759430466591</v>
@@ -26694,7 +26466,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.553315946305979</v>
+        <v>1.456404087353591</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.149568579845328</v>
@@ -26783,7 +26555,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.549079510099002</v>
+        <v>1.455092749394826</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.218625891222465</v>
@@ -26872,7 +26644,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.552204662154688</v>
+        <v>1.46378645770206</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.835145933641666</v>
@@ -26961,7 +26733,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.551898419601567</v>
+        <v>1.469040376751599</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.041603322809832</v>
@@ -27050,7 +26822,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.544102219442752</v>
+        <v>1.461975068702997</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.926736867563408</v>
@@ -27139,7 +26911,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.544855135548745</v>
+        <v>1.468495597788825</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.915461601595868</v>
@@ -27228,7 +27000,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.548700592529417</v>
+        <v>1.474531733218706</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.875999943830045</v>
@@ -27317,7 +27089,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.549407887280245</v>
+        <v>1.477766581295561</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.061415512915731</v>
@@ -27406,7 +27178,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.537650029649223</v>
+        <v>1.483821673352006</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.632475561089135</v>
@@ -27495,7 +27267,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.538854386525733</v>
+        <v>1.490434755409344</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.467002917177344</v>
@@ -27584,7 +27356,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.53986904495796</v>
+        <v>1.494440085922969</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.524529513622824</v>
@@ -27673,7 +27445,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.547097360501948</v>
+        <v>1.502807872220893</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.577219829908096</v>
@@ -27762,7 +27534,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.540474363644801</v>
+        <v>1.500501775176595</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.624288933072011</v>
@@ -27851,7 +27623,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.541671201356595</v>
+        <v>1.506102080647619</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.517285323925345</v>
@@ -27940,7 +27712,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.543511017693294</v>
+        <v>1.520395863879006</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.427604200604116</v>
@@ -28029,7 +27801,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.560865589705879</v>
+        <v>1.54283086216115</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.529818972395497</v>
@@ -28118,7 +27890,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.555692825050852</v>
+        <v>1.536830078184908</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.690373401097741</v>
@@ -28207,7 +27979,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.548427118258258</v>
+        <v>1.531664421969331</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.526777782100505</v>
@@ -28296,7 +28068,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.553387199964412</v>
+        <v>1.531318599134519</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.505593728395894</v>
@@ -28385,7 +28157,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.569168686249328</v>
+        <v>1.544215211417685</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.618694537648723</v>
@@ -28474,7 +28246,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.577225071322753</v>
+        <v>1.550187834579024</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.667045142066844</v>
@@ -28563,7 +28335,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.57445072480477</v>
+        <v>1.546507344352978</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.565990046465308</v>
@@ -28652,7 +28424,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.568495913521523</v>
+        <v>1.541645841510208</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.60614283506959</v>
@@ -28741,7 +28513,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.582930490121034</v>
+        <v>1.550693663240235</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.085501659453085</v>
@@ -28830,7 +28602,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.576702522896899</v>
+        <v>1.539173183791217</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.404591549219525</v>
@@ -28919,7 +28691,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.572829256262174</v>
+        <v>1.532051361785194</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.132909359481135</v>
@@ -29008,7 +28780,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.56930575193855</v>
+        <v>1.523932861552071</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.975006973300489</v>
@@ -29097,7 +28869,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.57309450959294</v>
+        <v>1.523560035531493</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.112084367324691</v>
@@ -29186,7 +28958,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.579711657355462</v>
+        <v>1.531281059072036</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.083352688001843</v>
@@ -29275,7 +29047,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.564982650194435</v>
+        <v>1.515759075245919</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.317970344475037</v>
@@ -29364,7 +29136,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.559517838838213</v>
+        <v>1.511285119586279</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.409784726703241</v>
@@ -29453,7 +29225,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.565552138248699</v>
+        <v>1.514258931867554</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.867702620126522</v>
@@ -29542,7 +29314,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.570757193764281</v>
+        <v>1.520774429199583</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.138151941697731</v>
@@ -29631,7 +29403,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.567701351416758</v>
+        <v>1.524562046969654</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.360522657183556</v>
@@ -29720,7 +29492,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.551745683318283</v>
+        <v>1.505920487593522</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.554395380678754</v>
@@ -29809,7 +29581,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.54160249260596</v>
+        <v>1.495993008087858</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.406074854667798</v>
@@ -29898,7 +29670,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.526428652374084</v>
+        <v>1.485258230141482</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.019570396079886</v>
@@ -29987,7 +29759,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.525300330756479</v>
+        <v>1.478586232270299</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.213263539203477</v>
@@ -30076,7 +29848,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.530994933277886</v>
+        <v>1.482101304721374</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.352293960495731</v>
@@ -30165,7 +29937,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.5315548593334</v>
+        <v>1.480568160914103</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.419749159479275</v>
@@ -30254,7 +30026,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.540497995817587</v>
+        <v>1.491470323299724</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.374249692050148</v>
@@ -30343,7 +30115,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.54182713093797</v>
+        <v>1.491465839922538</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.303320430916829</v>
@@ -30432,7 +30204,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.547600913561922</v>
+        <v>1.500522468117713</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.267583763347218</v>
@@ -30521,7 +30293,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.548432922190007</v>
+        <v>1.496271021814792</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.480969608219193</v>
@@ -30610,7 +30382,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.549304023003478</v>
+        <v>1.501873701272165</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.382258864521308</v>
@@ -30699,7 +30471,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.553121845252393</v>
+        <v>1.505084338887914</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.454381489200594</v>
@@ -30788,7 +30560,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.551349055831392</v>
+        <v>1.508041012195957</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.464097040887813</v>
@@ -30877,7 +30649,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.557342057319755</v>
+        <v>1.514404079547303</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.964067374698394</v>
@@ -30966,7 +30738,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.555828443394859</v>
+        <v>1.519187163234599</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.341058810090079</v>
@@ -31055,7 +30827,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.56612462603016</v>
+        <v>1.520849067669926</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.025147214594901</v>
@@ -31144,7 +30916,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.562174045296462</v>
+        <v>1.523199359679741</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.029577196030499</v>
@@ -31233,7 +31005,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.570598648330316</v>
+        <v>1.53022005116217</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.707025926711457</v>
@@ -31322,7 +31094,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.575819653063167</v>
+        <v>1.541082613845315</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.146492321317704</v>
@@ -31411,7 +31183,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.58135113890209</v>
+        <v>1.543182267482371</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.747009139969464</v>
@@ -31500,7 +31272,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.571258379275825</v>
+        <v>1.537411587991051</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.942094713283602</v>
@@ -31589,7 +31361,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.569639121766635</v>
+        <v>1.536580276055635</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.042863916507321</v>
@@ -31875,7 +31647,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.490025832839964</v>
+        <v>1.462566309670571</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.355672115377445</v>
@@ -31964,7 +31736,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.462419406649627</v>
+        <v>1.432043733908629</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.378523825673455</v>
@@ -32053,7 +31825,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.472911016130403</v>
+        <v>1.441617628896373</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.262485491735438</v>
@@ -32142,7 +31914,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.486267710047333</v>
+        <v>1.455466219929107</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.317248872970127</v>
@@ -32231,7 +32003,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.4885423615415</v>
+        <v>1.457679057813304</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.338779945119847</v>
@@ -32320,7 +32092,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.463436811928185</v>
+        <v>1.435472389284489</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.415020616745204</v>
@@ -32409,7 +32181,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.467044832703566</v>
+        <v>1.437706367014478</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.234235812786147</v>
@@ -32498,7 +32270,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.48579058497705</v>
+        <v>1.445626219794339</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.109464090587087</v>
@@ -32587,7 +32359,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.477006853762848</v>
+        <v>1.439752900839667</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.351802323702219</v>
@@ -32676,7 +32448,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.445429605545488</v>
+        <v>1.409130503269245</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.385868254766815</v>
@@ -32765,7 +32537,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.444156963625762</v>
+        <v>1.40272207087449</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.394698376911267</v>
@@ -32854,7 +32626,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.459739975035025</v>
+        <v>1.413308023150011</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.24290050954048</v>
@@ -32943,7 +32715,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.465261248200102</v>
+        <v>1.412412060651734</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.434056364321045</v>
@@ -33032,7 +32804,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.463035121401099</v>
+        <v>1.40493917921788</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.387199668089844</v>
@@ -33121,7 +32893,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.429792663421694</v>
+        <v>1.382327208882849</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.336941311577155</v>
@@ -33210,7 +32982,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.436045141432513</v>
+        <v>1.387381209476401</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.228948943205872</v>
@@ -33299,7 +33071,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.429891271196118</v>
+        <v>1.386606689519612</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.362079468246623</v>
@@ -33388,7 +33160,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.432382025345573</v>
+        <v>1.388199491957018</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.416531545991427</v>
@@ -33477,7 +33249,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.430147433493686</v>
+        <v>1.378101458051529</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.451682109391092</v>
@@ -33566,7 +33338,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.43783575153059</v>
+        <v>1.385687747363988</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.228785709026036</v>
@@ -33655,7 +33427,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.453489116716862</v>
+        <v>1.395435585712782</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.359468055730515</v>
@@ -33744,7 +33516,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.448817921726903</v>
+        <v>1.390850746999897</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.392950851603484</v>
@@ -33833,7 +33605,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.447846386987101</v>
+        <v>1.391088998345624</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.296690755871836</v>
@@ -33922,7 +33694,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.459465374478111</v>
+        <v>1.401754992440607</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.345681061570597</v>
@@ -34011,7 +33783,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.456061806976372</v>
+        <v>1.397464668251081</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.34433312979794</v>
@@ -34100,7 +33872,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.457652331533467</v>
+        <v>1.400071525319281</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.287464368826854</v>
@@ -34189,7 +33961,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.455173586975273</v>
+        <v>1.400314439166773</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.319838452686594</v>
@@ -34278,7 +34050,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.449281797577857</v>
+        <v>1.403026855873224</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.414026319937236</v>
@@ -34367,7 +34139,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.460611086837636</v>
+        <v>1.415237506521943</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.225305687453814</v>
@@ -34456,7 +34228,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.461822015732039</v>
+        <v>1.416628861152154</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.278315320945193</v>
@@ -34545,7 +34317,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.470801538701242</v>
+        <v>1.424084574060963</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.208531979469496</v>
@@ -34634,7 +34406,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.485832205618194</v>
+        <v>1.43754097979899</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.258005741863734</v>
@@ -34723,7 +34495,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.475515893675459</v>
+        <v>1.429846142440056</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.359841877692091</v>
@@ -34812,7 +34584,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.478901851283384</v>
+        <v>1.444263066760202</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.207886349437649</v>
@@ -34901,7 +34673,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.477054850365807</v>
+        <v>1.444751813448731</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.250031847940516</v>
@@ -34990,7 +34762,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.460703194899371</v>
+        <v>1.437272351102381</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.428753077541814</v>
@@ -35079,7 +34851,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.470474388157366</v>
+        <v>1.450473643037784</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.178218968508479</v>
@@ -35168,7 +34940,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.477708101989795</v>
+        <v>1.458234469891948</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.290011289539053</v>
@@ -35257,7 +35029,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.459598434805271</v>
+        <v>1.437600056413112</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.327377540177909</v>
@@ -35346,7 +35118,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.486696973820004</v>
+        <v>1.466958329812141</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.319135417517345</v>
@@ -35435,7 +35207,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.491349103951783</v>
+        <v>1.478801992397298</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.349334432123071</v>
@@ -35524,7 +35296,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.506821379995921</v>
+        <v>1.490079534955296</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.226099685509159</v>
@@ -35613,7 +35385,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.496151796322047</v>
+        <v>1.478621758020108</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.386872610525578</v>
@@ -35702,7 +35474,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.476731580162604</v>
+        <v>1.463235656270133</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.328934451104408</v>
@@ -35791,7 +35563,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.461652032963774</v>
+        <v>1.445517210125643</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.26066029884011</v>
@@ -35880,7 +35652,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.464918009009045</v>
+        <v>1.447969904459439</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.258587082821464</v>
@@ -35969,7 +35741,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.47368980355299</v>
+        <v>1.452796920854711</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.282203373845792</v>
@@ -36058,7 +35830,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.479201412489776</v>
+        <v>1.454628118954663</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.322596602533135</v>
@@ -36147,7 +35919,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.456782493608367</v>
+        <v>1.43278878413716</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.258579876056161</v>
@@ -36236,7 +36008,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.436853763706698</v>
+        <v>1.413219927909065</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.224497880801839</v>
@@ -36325,7 +36097,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.448109349556633</v>
+        <v>1.420126564484103</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.2994672700406</v>
@@ -36414,7 +36186,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.449102989275881</v>
+        <v>1.41943302740884</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.272171714704824</v>
@@ -36503,7 +36275,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.445079592775561</v>
+        <v>1.414621692800929</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.257648361874575</v>
@@ -36592,7 +36364,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.446735905022919</v>
+        <v>1.41701916840606</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.201050471991759</v>
@@ -36681,7 +36453,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.441235258345781</v>
+        <v>1.414720844571572</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.267053697857071</v>
@@ -36770,7 +36542,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.444722019474397</v>
+        <v>1.422787382551026</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.29323422903094</v>
@@ -36859,7 +36631,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.445241461727789</v>
+        <v>1.418755627274862</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.360023724826243</v>
@@ -36948,7 +36720,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.423814013835313</v>
+        <v>1.402462155024329</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.339242906412391</v>
@@ -37037,7 +36809,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.439931908134241</v>
+        <v>1.42249891716156</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.004410589399868</v>
@@ -37126,7 +36898,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.449189226461746</v>
+        <v>1.424733153726433</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.317511355962935</v>
@@ -37215,7 +36987,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.440587267587166</v>
+        <v>1.413462901067085</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.362131179828627</v>
@@ -37304,7 +37076,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.409962564508146</v>
+        <v>1.392206283224959</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.351080604082327</v>
@@ -37393,7 +37165,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.391234607594144</v>
+        <v>1.373253240064551</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.358128312803334</v>
@@ -37482,7 +37254,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.414495219273205</v>
+        <v>1.395001124712964</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.304895493091736</v>
@@ -37571,7 +37343,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.444521720839611</v>
+        <v>1.422714574081387</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.30733793406592</v>
@@ -37660,7 +37432,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.444452395216099</v>
+        <v>1.423195928251886</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.378782426106454</v>
@@ -37749,7 +37521,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.442383545390852</v>
+        <v>1.419354277321727</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.308349746402567</v>
@@ -37838,7 +37610,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.416341869839148</v>
+        <v>1.39678131009193</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.370685301939739</v>
@@ -37927,7 +37699,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.433684934328308</v>
+        <v>1.409785003556847</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.348132059993201</v>
@@ -38016,7 +37788,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.428561918534689</v>
+        <v>1.405445399311731</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.377165734380497</v>
@@ -38105,7 +37877,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.418272041179022</v>
+        <v>1.394525952044642</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.310815231896604</v>
@@ -38194,7 +37966,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.407573221918839</v>
+        <v>1.381924536414279</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.099678581621576</v>
@@ -38283,7 +38055,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.440196012024468</v>
+        <v>1.411338614573716</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.257516653913095</v>
@@ -38372,7 +38144,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.450804684371832</v>
+        <v>1.418851671812507</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.36242195092597</v>
@@ -38461,7 +38233,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.454662938064106</v>
+        <v>1.424043687115532</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.306798755648382</v>
@@ -38550,7 +38322,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.45484971481603</v>
+        <v>1.423583518930848</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.131605466266955</v>
@@ -38639,7 +38411,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.459917993160445</v>
+        <v>1.426791218384875</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.33306232176961</v>
@@ -38728,7 +38500,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.491563853499365</v>
+        <v>1.459523614168584</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.29578156909333</v>
@@ -38817,7 +38589,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.488896281395664</v>
+        <v>1.456054914369622</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.415424551531391</v>
@@ -38906,7 +38678,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.4365902568527</v>
+        <v>1.407877144583162</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.349798296842412</v>
@@ -38995,7 +38767,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.436535031250108</v>
+        <v>1.411486045554101</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.334773817237203</v>
@@ -39281,7 +39053,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.5501577825307</v>
+        <v>1.5092660625294</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.868816184116983</v>
@@ -39370,7 +39142,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.523598597215615</v>
+        <v>1.481351974924409</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.908407998693459</v>
@@ -39459,7 +39231,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.538489099766059</v>
+        <v>1.494896533367287</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.000444090051251</v>
@@ -39548,7 +39320,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.552052158285187</v>
+        <v>1.506014912172336</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.766878499466357</v>
@@ -39637,7 +39409,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.539932564555561</v>
+        <v>1.499488953161656</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.735239539455733</v>
@@ -39726,7 +39498,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.522782250005104</v>
+        <v>1.478162886573828</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.735925239121035</v>
@@ -39815,7 +39587,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.531820586831857</v>
+        <v>1.481797605757144</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.73081210119373</v>
@@ -39904,7 +39676,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.527176765369552</v>
+        <v>1.481544915593684</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.744824741076767</v>
@@ -39993,7 +39765,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.528289399593339</v>
+        <v>1.474591731971958</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.609924798201465</v>
@@ -40082,7 +39854,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.53178422808389</v>
+        <v>1.473610842812972</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.746429344445168</v>
@@ -40171,7 +39943,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.535812761037432</v>
+        <v>1.471069254259695</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.567438285029158</v>
@@ -40260,7 +40032,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.529421494209842</v>
+        <v>1.462509031667563</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.498818784402521</v>
@@ -40349,7 +40121,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.520011340557751</v>
+        <v>1.444120859965049</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.501861602707754</v>
@@ -40438,7 +40210,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.524783970594233</v>
+        <v>1.443270371668762</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.619814318557785</v>
@@ -40527,7 +40299,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.509242583477424</v>
+        <v>1.42955129611847</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.744781399377093</v>
@@ -40616,7 +40388,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.500875712384354</v>
+        <v>1.418510090969978</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.574152890455189</v>
@@ -40705,7 +40477,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.512199543372281</v>
+        <v>1.423447378156517</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.728656263900289</v>
@@ -40794,7 +40566,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.512870751499918</v>
+        <v>1.424081823237716</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.635784513852531</v>
@@ -40883,7 +40655,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.503508642421175</v>
+        <v>1.412761768502293</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.76506587276979</v>
@@ -40972,7 +40744,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.520006881119282</v>
+        <v>1.421659732980512</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.898239864472163</v>
@@ -41061,7 +40833,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.519377333662549</v>
+        <v>1.420241726351212</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.703016357605307</v>
@@ -41150,7 +40922,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.503858664343717</v>
+        <v>1.407219725089379</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.496702929384358</v>
@@ -41239,7 +41011,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.504561816880043</v>
+        <v>1.403583869540741</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.736067418633038</v>
@@ -41328,7 +41100,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.496121553354448</v>
+        <v>1.401145681297752</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.749975660597099</v>
@@ -41417,7 +41189,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.490835917686063</v>
+        <v>1.399275486708018</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.681985601376069</v>
@@ -41506,7 +41278,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.490094784623388</v>
+        <v>1.40131384103772</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.540720183720427</v>
@@ -41595,7 +41367,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.490340645627104</v>
+        <v>1.408240848622158</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.813405117494167</v>
@@ -41684,7 +41456,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.494477741321702</v>
+        <v>1.421529533726349</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.693441560054183</v>
@@ -41773,7 +41545,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.481621675272484</v>
+        <v>1.42006163915297</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.663043354035026</v>
@@ -41862,7 +41634,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.490941011530237</v>
+        <v>1.428543797479043</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.512414351293921</v>
@@ -41951,7 +41723,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.495907925895829</v>
+        <v>1.436017842867926</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.617900343858202</v>
@@ -42040,7 +41812,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.508874707138314</v>
+        <v>1.452413498475871</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.486144211229166</v>
@@ -42129,7 +41901,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.491898495734856</v>
+        <v>1.437547327665685</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.672044012226169</v>
@@ -42218,7 +41990,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.496683051618512</v>
+        <v>1.445077161807443</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.606199920191101</v>
@@ -42307,7 +42079,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.50701999162818</v>
+        <v>1.457338660275377</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.611879825843145</v>
@@ -42396,7 +42168,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.507248834406218</v>
+        <v>1.464312775986241</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.597736084408688</v>
@@ -42485,7 +42257,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.523596154637894</v>
+        <v>1.48193707956174</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.539492502940021</v>
@@ -42574,7 +42346,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.536438074165127</v>
+        <v>1.502163587340817</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.431403712501651</v>
@@ -42663,7 +42435,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.530877905543754</v>
+        <v>1.496669918542494</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.600765229890799</v>
@@ -42752,7 +42524,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.533206622508842</v>
+        <v>1.500041312979798</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.732359781390874</v>
@@ -42841,7 +42613,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.543151449919904</v>
+        <v>1.511424180710071</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.611649079739095</v>
@@ -42930,7 +42702,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.547374321490807</v>
+        <v>1.51504619921591</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.586759748620046</v>
@@ -43019,7 +42791,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.544919116491837</v>
+        <v>1.504770937079547</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.636205203203603</v>
@@ -43108,7 +42880,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.556527279482449</v>
+        <v>1.514869173642709</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.657374020829224</v>
@@ -43197,7 +42969,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.547017218756907</v>
+        <v>1.51192441505082</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.665632816082371</v>
@@ -43286,7 +43058,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.562881705437214</v>
+        <v>1.529332802813687</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.577386834866087</v>
@@ -43375,7 +43147,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.567508362793975</v>
+        <v>1.525754824708428</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.727835142767538</v>
@@ -43464,7 +43236,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.584911809321476</v>
+        <v>1.542380179389478</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.729136199739531</v>
@@ -43553,7 +43325,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.582507769708126</v>
+        <v>1.538781134713301</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.755430315415214</v>
@@ -43642,7 +43414,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.583808471516475</v>
+        <v>1.52752860700716</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.571250080459112</v>
@@ -43731,7 +43503,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.568070973343471</v>
+        <v>1.516952828086513</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.724911203789685</v>
@@ -43820,7 +43592,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.564560161981336</v>
+        <v>1.516737061902214</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.80325789591319</v>
@@ -43909,7 +43681,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.563467619866028</v>
+        <v>1.515537671540473</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.871123015841451</v>
@@ -43998,7 +43770,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.584668001566516</v>
+        <v>1.536682642360123</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.778765972874027</v>
@@ -44087,7 +43859,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.576707809098324</v>
+        <v>1.52902200634349</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.691905010886633</v>
@@ -44176,7 +43948,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.581728102838673</v>
+        <v>1.532394400658404</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.850914532074837</v>
@@ -44265,7 +44037,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.568569336055029</v>
+        <v>1.524340706037683</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.792700900717921</v>
@@ -44354,7 +44126,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.566202087533717</v>
+        <v>1.529983863314569</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.825808727275974</v>
@@ -44443,7 +44215,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.57583869985458</v>
+        <v>1.534913321251484</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.665611472459613</v>
@@ -44532,7 +44304,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.586134841897793</v>
+        <v>1.528123891859495</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.924551386322073</v>
@@ -44621,7 +44393,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.587713647972556</v>
+        <v>1.528651394469263</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.670323866068503</v>
@@ -44710,7 +44482,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.574853061648785</v>
+        <v>1.52465412799187</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.802756988374691</v>
@@ -44799,7 +44571,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.578359100157509</v>
+        <v>1.519370678875871</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.751989691216745</v>
@@ -44888,7 +44660,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.587457837756497</v>
+        <v>1.529280118445896</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.818654683640515</v>
@@ -44977,7 +44749,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.58734566712874</v>
+        <v>1.533747019306186</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.564505426822979</v>
@@ -45066,7 +44838,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.590966451135356</v>
+        <v>1.537257950781394</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.852108996884415</v>
@@ -45155,7 +44927,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.588126245598297</v>
+        <v>1.534363903602461</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.919083740620227</v>
@@ -45244,7 +45016,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.587743302110868</v>
+        <v>1.53238979729165</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.650326410108196</v>
@@ -45333,7 +45105,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.567336925167326</v>
+        <v>1.516383435504857</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.889683581717355</v>
@@ -45422,7 +45194,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.577462045361772</v>
+        <v>1.527842640601531</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.858383989311153</v>
@@ -45511,7 +45283,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.570771121589778</v>
+        <v>1.518900270581917</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.927468278578012</v>
@@ -45600,7 +45372,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.586572767834189</v>
+        <v>1.530349794505281</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.737184603537306</v>
@@ -45689,7 +45461,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.59406899984268</v>
+        <v>1.533346033510763</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.740059170070911</v>
@@ -45778,7 +45550,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.566189473773412</v>
+        <v>1.517482008510195</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.610582385351992</v>
@@ -45867,7 +45639,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.568586385800589</v>
+        <v>1.523181005551559</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.809755953630147</v>
@@ -45956,7 +45728,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.559542450061724</v>
+        <v>1.515030854577645</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.005994671990367</v>
@@ -46045,7 +45817,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.550896769443082</v>
+        <v>1.505216265544743</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.51361064810378</v>
@@ -46134,7 +45906,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.551132347959287</v>
+        <v>1.512258866102329</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.889919423075944</v>
@@ -46223,7 +45995,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.546319169281002</v>
+        <v>1.503141761535093</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.62695654942373</v>
@@ -46312,7 +46084,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.542659039769815</v>
+        <v>1.500471727869906</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.800520302260086</v>
@@ -46401,7 +46173,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.551145882893014</v>
+        <v>1.509083112320322</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.78578674704912</v>
@@ -46687,7 +46459,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.363132147761445</v>
+        <v>1.336085400603382</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.183396001105875</v>
@@ -46776,7 +46548,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.345142542831562</v>
+        <v>1.316165391238078</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.237033674911649</v>
@@ -46865,7 +46637,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.375655174577169</v>
+        <v>1.344858324219319</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.204912622977404</v>
@@ -46954,7 +46726,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.410398647062473</v>
+        <v>1.379645257772706</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.122941952941343</v>
@@ -47043,7 +46815,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.411299424710555</v>
+        <v>1.388163976783091</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.100485813920392</v>
@@ -47132,7 +46904,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.408732233326351</v>
+        <v>1.382390361081085</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.174902643483837</v>
@@ -47221,7 +46993,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.41769139881895</v>
+        <v>1.386616951938871</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.18192286667874</v>
@@ -47310,7 +47082,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.402440000857281</v>
+        <v>1.37122513007252</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.12590746516839</v>
@@ -47399,7 +47171,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.404028058903034</v>
+        <v>1.368798905222223</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.15079748491419</v>
@@ -47488,7 +47260,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.408850483693775</v>
+        <v>1.36983324519965</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.074074812843293</v>
@@ -47577,7 +47349,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.423937482199686</v>
+        <v>1.378107335364571</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.139805189281645</v>
@@ -47666,7 +47438,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.4132289777881</v>
+        <v>1.370536525851082</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.242355984472026</v>
@@ -47755,7 +47527,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.418891253110437</v>
+        <v>1.364860691692993</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.24293312387972</v>
@@ -47844,7 +47616,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.408506544503205</v>
+        <v>1.353739642471395</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.2439326781174</v>
@@ -47933,7 +47705,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.374992902036729</v>
+        <v>1.327463846193605</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.305010166072496</v>
@@ -48022,7 +47794,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.356271814320602</v>
+        <v>1.310462628526795</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.412393383651322</v>
@@ -48111,7 +47883,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.361212952961538</v>
+        <v>1.313770597215194</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.378671897165806</v>
@@ -48200,7 +47972,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.37874223918143</v>
+        <v>1.32845198637238</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.348779993503061</v>
@@ -48289,7 +48061,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.355037436390212</v>
+        <v>1.307693930693298</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.376198428523184</v>
@@ -48378,7 +48150,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.371135242421993</v>
+        <v>1.321886695481608</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.272547741159958</v>
@@ -48467,7 +48239,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.374239702430385</v>
+        <v>1.323632135223851</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.342507207715765</v>
@@ -48556,7 +48328,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.367626279774104</v>
+        <v>1.32242637762914</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.210933309740942</v>
@@ -48645,7 +48417,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.370984578875089</v>
+        <v>1.325300831909619</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.304872760465371</v>
@@ -48734,7 +48506,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.373211226445264</v>
+        <v>1.324478944275902</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.302430075212637</v>
@@ -48823,7 +48595,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.353559860452948</v>
+        <v>1.304335950826867</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.348974658448943</v>
@@ -48912,7 +48684,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.333845173670495</v>
+        <v>1.288244420014282</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.292268955778674</v>
@@ -49001,7 +48773,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.331518689292508</v>
+        <v>1.290669726689769</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.367812191800987</v>
@@ -49090,7 +48862,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.336672437166451</v>
+        <v>1.301007669151123</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.103138103964219</v>
@@ -49179,7 +48951,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.331459588115284</v>
+        <v>1.298359627203886</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.31539812136532</v>
@@ -49268,7 +49040,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.354901347290029</v>
+        <v>1.319577836120577</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.100150777683089</v>
@@ -49357,7 +49129,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.376818976412138</v>
+        <v>1.346551000870211</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.264143926322066</v>
@@ -49446,7 +49218,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.402843194097037</v>
+        <v>1.372773814571409</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.225820870687278</v>
@@ -49535,7 +49307,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.378227886619981</v>
+        <v>1.353938991881926</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.342306718504184</v>
@@ -49624,7 +49396,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.413203389740722</v>
+        <v>1.387193571329648</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.387568031678881</v>
@@ -49713,7 +49485,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.417340780874646</v>
+        <v>1.390655359976674</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.343462532930278</v>
@@ -49802,7 +49574,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.416925168458278</v>
+        <v>1.39253938039963</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.368724773353799</v>
@@ -49891,7 +49663,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.445188762968132</v>
+        <v>1.413758569999056</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.250485868527127</v>
@@ -49980,7 +49752,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.463856403839435</v>
+        <v>1.431061472048682</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.307335505244229</v>
@@ -50069,7 +49841,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.468735071373564</v>
+        <v>1.44184296523332</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.144152133392124</v>
@@ -50158,7 +49930,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.477646317266978</v>
+        <v>1.453301635061323</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.395648780602382</v>
@@ -50247,7 +50019,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.551091001335747</v>
+        <v>1.516110102790319</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.241106209886878</v>
@@ -50336,7 +50108,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.564530134317897</v>
+        <v>1.522793758126977</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.353506676938373</v>
@@ -50425,7 +50197,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.570767044566606</v>
+        <v>1.522728360446823</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.380158508486688</v>
@@ -50514,7 +50286,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.594745014692292</v>
+        <v>1.547722801588485</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.34530735944564</v>
@@ -50603,7 +50375,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.557975969684217</v>
+        <v>1.522006327012824</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.320045584297825</v>
@@ -50692,7 +50464,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.55725118410376</v>
+        <v>1.514178409449458</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.208932213272217</v>
@@ -50781,7 +50553,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.557328095406897</v>
+        <v>1.509578676999175</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.348071659820264</v>
@@ -50870,7 +50642,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.59418685494808</v>
+        <v>1.538342270496485</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.341179746832744</v>
@@ -50959,7 +50731,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.565574608889368</v>
+        <v>1.512724841567413</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.285593020231083</v>
@@ -51048,7 +50820,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.565477465029902</v>
+        <v>1.508191302105792</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.403482745080598</v>
@@ -51137,7 +50909,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.531707579735081</v>
+        <v>1.481640530968131</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.363948704291043</v>
@@ -51226,7 +50998,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.52321845460956</v>
+        <v>1.482354931053985</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.270786998723907</v>
@@ -51315,7 +51087,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.490955602599707</v>
+        <v>1.458559671548827</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.353747384247958</v>
@@ -51404,7 +51176,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.482456911041948</v>
+        <v>1.453975961063942</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.374294891303106</v>
@@ -51493,7 +51265,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.450668923622628</v>
+        <v>1.429622323102234</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.300630901443806</v>
@@ -51582,7 +51354,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.426667012065377</v>
+        <v>1.405320109755332</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.322265305239311</v>
@@ -51671,7 +51443,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.3927959300636</v>
+        <v>1.376976594755081</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.363196173272817</v>
@@ -51760,7 +51532,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.394254002713635</v>
+        <v>1.385398766483419</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.332898789557687</v>
@@ -51849,7 +51621,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.404308136535628</v>
+        <v>1.391597985024252</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.184928577530754</v>
@@ -51938,7 +51710,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.405904206075568</v>
+        <v>1.382859916061996</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.431612563781511</v>
@@ -52027,7 +51799,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.410874197613928</v>
+        <v>1.388320362099891</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.375561590767876</v>
@@ -52116,7 +51888,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.389445175310253</v>
+        <v>1.371182268391922</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.504325124240216</v>
@@ -52205,7 +51977,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.3957269980717</v>
+        <v>1.371206444501584</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.465515984415514</v>
@@ -52294,7 +52066,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.391400368359387</v>
+        <v>1.365214409750019</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.286566494010076</v>
@@ -52383,7 +52155,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.391829145709637</v>
+        <v>1.366886871459091</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.117914238411437</v>
@@ -52472,7 +52244,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.389077831526061</v>
+        <v>1.365729832420104</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.358110894736347</v>
@@ -52561,7 +52333,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.379504392584424</v>
+        <v>1.357229288313518</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.388195280201226</v>
@@ -52650,7 +52422,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.376389895131996</v>
+        <v>1.351715840783216</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.43752237162176</v>
@@ -52739,7 +52511,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.355747526040262</v>
+        <v>1.338482411232028</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.30370942906283</v>
@@ -52828,7 +52600,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.378859002952171</v>
+        <v>1.362184269447838</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.260459034060081</v>
@@ -52917,7 +52689,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.377024000728298</v>
+        <v>1.358739361378644</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.396850952253427</v>
@@ -53006,7 +52778,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.399647239294504</v>
+        <v>1.376266870433336</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.376092314057935</v>
@@ -53095,7 +52867,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.399196681760723</v>
+        <v>1.375562725031569</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.398686498734077</v>
@@ -53184,7 +52956,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.378766166048487</v>
+        <v>1.35872295226856</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.305554160739816</v>
@@ -53273,7 +53045,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.397644967340437</v>
+        <v>1.371786753087012</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.380840729299688</v>
@@ -53362,7 +53134,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.379424764567206</v>
+        <v>1.361150025361369</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.291160132979369</v>
@@ -53451,7 +53223,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.376250604155356</v>
+        <v>1.356893515944148</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.334496772164781</v>
@@ -53540,7 +53312,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.380382985037778</v>
+        <v>1.365682670294922</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.264232027585876</v>
@@ -53629,7 +53401,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.393877894446645</v>
+        <v>1.37418353155887</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.169987552804362</v>
@@ -53718,7 +53490,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.384395988288572</v>
+        <v>1.367149758537105</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.324550306590527</v>
@@ -53807,7 +53579,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.402381356721704</v>
+        <v>1.38550274546331</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.415192736566154</v>
